--- a/data_month/zb/房地产/商品住宅施工、竣工面积.xlsx
+++ b/data_month/zb/房地产/商品住宅施工、竣工面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,5839 +464,8032 @@
           <t>商品住宅竣工面积_累计增长</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>商品住宅新开工施工面积</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>商品住宅施工面积</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>商品住宅竣工面积</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16006.51</v>
+        <v>1861.7</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>39072.92</v>
+        <v>13910.92</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>7497.91</v>
+        <v>552.15</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1861.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13910.92</v>
+      </c>
+      <c r="J2" t="n">
+        <v>552.15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17822.24</v>
+        <v>3970.78</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>41153.61</v>
-      </c>
-      <c r="E3" t="n">
-        <v>17.2</v>
-      </c>
+        <v>20400.04</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>9073.860000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21.4</v>
+        <v>1097.15</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>2109.08</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6489.120000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>545.0000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23335.33</v>
+        <v>5654.62</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>48304.93</v>
-      </c>
-      <c r="E4" t="n">
-        <v>17.7</v>
-      </c>
+        <v>24048.84</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>18948.45</v>
-      </c>
-      <c r="G4" t="n">
-        <v>17</v>
+        <v>1625.43</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1683.84</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3648.799999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>528.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1861.7</v>
+        <v>7559.08</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>13910.92</v>
+        <v>27237.52</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>552.15</v>
+        <v>2300.8</v>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>1904.46</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3188.68</v>
+      </c>
+      <c r="J5" t="n">
+        <v>675.3700000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3970.78</v>
+        <v>9768.530000000001</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>20400.04</v>
+        <v>30668.12</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1097.15</v>
+        <v>3478.43</v>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>2209.450000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3430.599999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1177.63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5654.62</v>
+        <v>11340.43</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>24048.84</v>
+        <v>33091.94</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>1625.43</v>
+        <v>4321.82</v>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>1571.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2423.820000000003</v>
+      </c>
+      <c r="J7" t="n">
+        <v>843.3899999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7559.08</v>
+        <v>12860.99</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>27237.52</v>
+        <v>35074.24</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>2300.8</v>
+        <v>5190.87</v>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>1520.559999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1982.299999999996</v>
+      </c>
+      <c r="J8" t="n">
+        <v>869.0500000000002</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9768.530000000001</v>
+        <v>14408.61</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>30668.12</v>
+        <v>37135.48</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>3478.43</v>
+        <v>6335.07</v>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>1547.620000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2061.240000000005</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1144.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11340.43</v>
+        <v>16006.51</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>33091.94</v>
+        <v>39072.92</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>4321.82</v>
+        <v>7497.91</v>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>1597.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1937.439999999995</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1162.84</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12860.99</v>
+        <v>17822.24</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>35074.24</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>41153.61</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17.2</v>
+      </c>
       <c r="F11" t="n">
-        <v>5190.87</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>9073.860000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1815.730000000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2080.690000000002</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1575.950000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14408.61</v>
+        <v>23335.33</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>37135.48</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>48304.93</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17.7</v>
+      </c>
       <c r="F12" t="n">
-        <v>6335.07</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>18948.45</v>
+      </c>
+      <c r="G12" t="n">
+        <v>17</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5513.09</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7151.32</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9874.59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21278.79</v>
+        <v>2400.14</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>49043.4</v>
+        <v>17835.65</v>
       </c>
       <c r="E13" t="n">
-        <v>25.5</v>
+        <v>28.2</v>
       </c>
       <c r="F13" t="n">
-        <v>8849.049999999999</v>
+        <v>647.11</v>
       </c>
       <c r="G13" t="n">
-        <v>18</v>
+        <v>17.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2400.14</v>
+      </c>
+      <c r="I13" t="n">
+        <v>17835.65</v>
+      </c>
+      <c r="J13" t="n">
+        <v>647.11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23232.46</v>
+        <v>5152.45</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>51185.92</v>
+        <v>25794.45</v>
       </c>
       <c r="E14" t="n">
-        <v>24.4</v>
+        <v>26.4</v>
       </c>
       <c r="F14" t="n">
-        <v>10630.8</v>
+        <v>1445.48</v>
       </c>
       <c r="G14" t="n">
-        <v>17.2</v>
+        <v>31.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2752.31</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7958.799999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>798.37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29293.31</v>
+        <v>7259.93</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>59766.14</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
+        <v>30183.75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>22544.24</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>2191.85</v>
+      </c>
+      <c r="G15" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2107.48</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4389.299999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>746.3699999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2400.14</v>
+        <v>9789.209999999999</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>17835.65</v>
+        <v>34236.35</v>
       </c>
       <c r="E16" t="n">
-        <v>28.2</v>
+        <v>29.5</v>
       </c>
       <c r="F16" t="n">
-        <v>647.11</v>
+        <v>2898.64</v>
       </c>
       <c r="G16" t="n">
-        <v>17.2</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2529.279999999999</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4052.599999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>706.79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5152.45</v>
+        <v>12817.11</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>25794.45</v>
+        <v>38310.16</v>
       </c>
       <c r="E17" t="n">
-        <v>26.4</v>
+        <v>24.9</v>
       </c>
       <c r="F17" t="n">
-        <v>1445.48</v>
+        <v>4052.41</v>
       </c>
       <c r="G17" t="n">
-        <v>31.7</v>
+        <v>16.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3027.900000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4073.810000000005</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1153.77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7259.93</v>
+        <v>15239.03</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>30183.75</v>
+        <v>41688.29</v>
       </c>
       <c r="E18" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>2191.85</v>
+        <v>5069.55</v>
       </c>
       <c r="G18" t="n">
-        <v>34.8</v>
+        <v>17.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2421.92</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3378.129999999997</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1017.14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9789.209999999999</v>
+        <v>17327.98</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>34236.35</v>
+        <v>44261.73</v>
       </c>
       <c r="E19" t="n">
-        <v>29.5</v>
+        <v>26.2</v>
       </c>
       <c r="F19" t="n">
-        <v>2898.64</v>
+        <v>6195.92</v>
       </c>
       <c r="G19" t="n">
-        <v>8.699999999999999</v>
+        <v>19.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2088.949999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2573.440000000002</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1126.37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12817.11</v>
+        <v>19456.69</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>38310.16</v>
+        <v>46814.93</v>
       </c>
       <c r="E20" t="n">
-        <v>24.9</v>
+        <v>26.1</v>
       </c>
       <c r="F20" t="n">
-        <v>4052.41</v>
+        <v>7520.59</v>
       </c>
       <c r="G20" t="n">
-        <v>16.5</v>
+        <v>18.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2128.709999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2553.199999999997</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1324.67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15239.03</v>
+        <v>21278.79</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>41688.29</v>
+        <v>49043.4</v>
       </c>
       <c r="E21" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="F21" t="n">
-        <v>5069.55</v>
+        <v>8849.049999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>17.3</v>
+        <v>18</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1822.100000000002</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2228.470000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1328.459999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17327.98</v>
+        <v>23232.46</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>44261.73</v>
+        <v>51185.92</v>
       </c>
       <c r="E22" t="n">
-        <v>26.2</v>
+        <v>24.4</v>
       </c>
       <c r="F22" t="n">
-        <v>6195.92</v>
+        <v>10630.8</v>
       </c>
       <c r="G22" t="n">
-        <v>19.4</v>
+        <v>17.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1953.669999999998</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2142.519999999997</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1781.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19456.69</v>
+        <v>29293.31</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>46814.93</v>
-      </c>
-      <c r="E23" t="n">
-        <v>26.1</v>
-      </c>
+        <v>59766.14</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>7520.59</v>
-      </c>
-      <c r="G23" t="n">
-        <v>18.7</v>
+        <v>22544.24</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>6060.850000000002</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8580.220000000001</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11913.44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25455.73</v>
+        <v>3069.21</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>60599.74</v>
+        <v>21914.64</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>11361.79</v>
+        <v>708.92</v>
       </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>3069.21</v>
+      </c>
+      <c r="I24" t="n">
+        <v>21914.64</v>
+      </c>
+      <c r="J24" t="n">
+        <v>708.92</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27647.93</v>
+        <v>6475.45</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>63230.95</v>
+        <v>31579.73</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>13724.27</v>
+        <v>1703.76</v>
       </c>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>3406.24</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9665.09</v>
+      </c>
+      <c r="J25" t="n">
+        <v>994.84</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34224.1</v>
+        <v>9269.16</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>72077.2</v>
+        <v>37681.29</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>26612.78</v>
+        <v>2567.49</v>
       </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>2793.71</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6101.560000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>863.7299999999998</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3069.21</v>
+        <v>11873.47</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>21914.64</v>
+        <v>42000.78</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>708.92</v>
+        <v>3392.2</v>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>2604.309999999999</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4319.489999999998</v>
+      </c>
+      <c r="J27" t="n">
+        <v>824.71</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6475.45</v>
+        <v>15277.65</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>31579.73</v>
+        <v>47048.26</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>1703.76</v>
+        <v>4880.52</v>
       </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>3404.18</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5047.480000000003</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1488.320000000001</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9269.16</v>
+        <v>17947.35</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>37681.29</v>
+        <v>51574.88</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>2567.49</v>
+        <v>6349.97</v>
       </c>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>2669.699999999999</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4526.619999999995</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1469.45</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11873.47</v>
+        <v>20272.9</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>42000.78</v>
+        <v>54446.52</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>3392.2</v>
+        <v>7880.45</v>
       </c>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>2325.550000000003</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2871.639999999999</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1530.48</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15277.65</v>
+        <v>22988.23</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>47048.26</v>
+        <v>57703.91</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>4880.52</v>
+        <v>9576.200000000001</v>
       </c>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>2715.329999999998</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3257.390000000007</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1695.750000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17947.35</v>
+        <v>25455.73</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>51574.88</v>
+        <v>60599.74</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>6349.97</v>
+        <v>11361.79</v>
       </c>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>2467.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2895.829999999994</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1785.59</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20272.9</v>
+        <v>27647.93</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>54446.52</v>
+        <v>63230.95</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>7880.45</v>
+        <v>13724.27</v>
       </c>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>2192.200000000001</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2631.209999999999</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2362.48</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22988.23</v>
+        <v>34224.1</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>57703.91</v>
+        <v>72077.2</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>9576.200000000001</v>
+        <v>26612.78</v>
       </c>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>6576.169999999998</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8846.25</v>
+      </c>
+      <c r="J34" t="n">
+        <v>12888.51</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32474.45</v>
+        <v>4624.66</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>76711.62</v>
+        <v>28938.82</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>14982.43</v>
+        <v>1180.96</v>
       </c>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>4624.66</v>
+      </c>
+      <c r="I35" t="n">
+        <v>28938.82</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1180.96</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35240.74</v>
+        <v>8729.639999999999</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>80316.78999999999</v>
+        <v>40952.5</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>17588.72</v>
+        <v>2459.05</v>
       </c>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>4104.98</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12013.68</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1278.09</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43676.44</v>
+        <v>12058.79</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>91018.09</v>
+        <v>47686.32</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>32200.47</v>
+        <v>3546.17</v>
       </c>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>3329.150000000001</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6733.82</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1087.12</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4624.66</v>
+        <v>15527.44</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>28938.82</v>
+        <v>54049.51</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>1180.96</v>
+        <v>4801.27</v>
       </c>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>3468.65</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6363.190000000002</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1255.1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8729.639999999999</v>
+        <v>19876.08</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>40952.5</v>
+        <v>60411.15</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>2459.05</v>
+        <v>6766.36</v>
       </c>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>4348.640000000001</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6361.639999999999</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1965.089999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12058.79</v>
+        <v>23264.82</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>47686.32</v>
+        <v>65111.33</v>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>3546.17</v>
+        <v>8561.52</v>
       </c>
       <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>3388.739999999998</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4700.18</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1795.160000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15527.44</v>
+        <v>26375.33</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>54049.51</v>
+        <v>68968.60000000001</v>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>4801.27</v>
+        <v>10307.04</v>
       </c>
       <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>3110.510000000002</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3857.270000000004</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1745.52</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19876.08</v>
+        <v>29607.81</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>60411.15</v>
+        <v>73157.10000000001</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>6766.36</v>
+        <v>12716.56</v>
       </c>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>3232.48</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4188.5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2409.519999999999</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>23264.82</v>
+        <v>32474.45</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>65111.33</v>
+        <v>76711.62</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>8561.52</v>
+        <v>14982.43</v>
       </c>
       <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>2866.639999999999</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3554.51999999999</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2265.870000000001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>26375.33</v>
+        <v>35240.74</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>68968.60000000001</v>
+        <v>80316.78999999999</v>
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>10307.04</v>
+        <v>17588.72</v>
       </c>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>2766.289999999997</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3605.169999999998</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2606.290000000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29607.81</v>
+        <v>43676.44</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>73157.10000000001</v>
+        <v>91018.09</v>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>12716.56</v>
+        <v>32200.47</v>
       </c>
       <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>8435.700000000004</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10701.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>14611.75</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35860.11</v>
+        <v>5851.55</v>
       </c>
       <c r="C46" t="n">
-        <v>10.3</v>
+        <v>26.5</v>
       </c>
       <c r="D46" t="n">
-        <v>93021.16</v>
+        <v>41763.32</v>
       </c>
       <c r="E46" t="n">
-        <v>21</v>
+        <v>44.1</v>
       </c>
       <c r="F46" t="n">
-        <v>16358.68</v>
+        <v>1542.98</v>
       </c>
       <c r="G46" t="n">
-        <v>8.6</v>
+        <v>30.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5851.55</v>
+      </c>
+      <c r="I46" t="n">
+        <v>41763.32</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1542.98</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>39000.45</v>
+        <v>10309.58</v>
       </c>
       <c r="C47" t="n">
-        <v>10.6</v>
+        <v>18.1</v>
       </c>
       <c r="D47" t="n">
-        <v>96850.33</v>
+        <v>54249.26</v>
       </c>
       <c r="E47" t="n">
-        <v>20.3</v>
+        <v>32.1</v>
       </c>
       <c r="F47" t="n">
-        <v>19464.81</v>
+        <v>2980.91</v>
       </c>
       <c r="G47" t="n">
-        <v>10.1</v>
+        <v>19.5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4458.03</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12485.94</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1437.93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>47949.01</v>
+        <v>13985.85</v>
       </c>
       <c r="C48" t="n">
-        <v>9.300000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="D48" t="n">
-        <v>108196.54</v>
+        <v>62148.24</v>
       </c>
       <c r="E48" t="n">
-        <v>18.2</v>
+        <v>30.4</v>
       </c>
       <c r="F48" t="n">
-        <v>34677.18</v>
+        <v>4273.63</v>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>19.4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3676.27</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7898.979999999996</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1292.72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5851.55</v>
+        <v>18041.01</v>
       </c>
       <c r="C49" t="n">
-        <v>26.5</v>
+        <v>16.2</v>
       </c>
       <c r="D49" t="n">
-        <v>41763.32</v>
+        <v>69386.39999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>44.1</v>
+        <v>28.2</v>
       </c>
       <c r="F49" t="n">
-        <v>1542.98</v>
+        <v>5722.29</v>
       </c>
       <c r="G49" t="n">
-        <v>30.5</v>
+        <v>18.2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4055.159999999998</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7238.159999999996</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1448.66</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>10309.58</v>
+        <v>22503.28</v>
       </c>
       <c r="C50" t="n">
-        <v>18.1</v>
+        <v>13.2</v>
       </c>
       <c r="D50" t="n">
-        <v>54249.26</v>
+        <v>75730.53</v>
       </c>
       <c r="E50" t="n">
-        <v>32.1</v>
+        <v>25.2</v>
       </c>
       <c r="F50" t="n">
-        <v>2980.91</v>
+        <v>7799.48</v>
       </c>
       <c r="G50" t="n">
-        <v>19.5</v>
+        <v>14.2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4462.27</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6344.130000000005</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2077.19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13985.85</v>
+        <v>26327.87</v>
       </c>
       <c r="C51" t="n">
-        <v>16.2</v>
+        <v>13.2</v>
       </c>
       <c r="D51" t="n">
-        <v>62148.24</v>
+        <v>80475.98</v>
       </c>
       <c r="E51" t="n">
-        <v>30.4</v>
+        <v>23.4</v>
       </c>
       <c r="F51" t="n">
-        <v>4273.63</v>
+        <v>9640.860000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>19.4</v>
+        <v>11.6</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3824.59</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4745.449999999997</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1841.380000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>18041.01</v>
+        <v>29590.61</v>
       </c>
       <c r="C52" t="n">
-        <v>16.2</v>
+        <v>12.2</v>
       </c>
       <c r="D52" t="n">
-        <v>69386.39999999999</v>
+        <v>85048.22</v>
       </c>
       <c r="E52" t="n">
-        <v>28.2</v>
+        <v>23.1</v>
       </c>
       <c r="F52" t="n">
-        <v>5722.29</v>
+        <v>11470.42</v>
       </c>
       <c r="G52" t="n">
-        <v>18.2</v>
+        <v>10.5</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3262.740000000002</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4572.240000000005</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1829.559999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>22503.28</v>
+        <v>32786.85</v>
       </c>
       <c r="C53" t="n">
-        <v>13.2</v>
+        <v>10.6</v>
       </c>
       <c r="D53" t="n">
-        <v>75730.53</v>
+        <v>89322.03999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>25.2</v>
+        <v>21.9</v>
       </c>
       <c r="F53" t="n">
-        <v>7799.48</v>
+        <v>13948.99</v>
       </c>
       <c r="G53" t="n">
-        <v>14.2</v>
+        <v>9.1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3196.239999999998</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4273.819999999992</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2478.57</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>26327.87</v>
+        <v>35860.11</v>
       </c>
       <c r="C54" t="n">
-        <v>13.2</v>
+        <v>10.3</v>
       </c>
       <c r="D54" t="n">
-        <v>80475.98</v>
+        <v>93021.16</v>
       </c>
       <c r="E54" t="n">
-        <v>23.4</v>
+        <v>21</v>
       </c>
       <c r="F54" t="n">
-        <v>9640.860000000001</v>
+        <v>16358.68</v>
       </c>
       <c r="G54" t="n">
-        <v>11.6</v>
+        <v>8.6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3073.260000000002</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3699.12000000001</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2409.690000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>29590.61</v>
+        <v>39000.45</v>
       </c>
       <c r="C55" t="n">
-        <v>12.2</v>
+        <v>10.6</v>
       </c>
       <c r="D55" t="n">
-        <v>85048.22</v>
+        <v>96850.33</v>
       </c>
       <c r="E55" t="n">
-        <v>23.1</v>
+        <v>20.3</v>
       </c>
       <c r="F55" t="n">
-        <v>11470.42</v>
+        <v>19464.81</v>
       </c>
       <c r="G55" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3140.339999999997</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3829.169999999998</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3106.130000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>32786.85</v>
+        <v>47949.01</v>
       </c>
       <c r="C56" t="n">
-        <v>10.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>89322.03999999999</v>
+        <v>108196.54</v>
       </c>
       <c r="E56" t="n">
-        <v>21.9</v>
+        <v>18.2</v>
       </c>
       <c r="F56" t="n">
-        <v>13948.99</v>
+        <v>34677.18</v>
       </c>
       <c r="G56" t="n">
-        <v>9.1</v>
+        <v>2.3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>8948.560000000005</v>
+      </c>
+      <c r="I56" t="n">
+        <v>11346.20999999999</v>
+      </c>
+      <c r="J56" t="n">
+        <v>15212.37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>41103.06</v>
+        <v>6094.21</v>
       </c>
       <c r="C57" t="n">
-        <v>14.4</v>
+        <v>4.3</v>
       </c>
       <c r="D57" t="n">
-        <v>110926.55</v>
+        <v>49125.32</v>
       </c>
       <c r="E57" t="n">
-        <v>19.1</v>
+        <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>19582.96</v>
+        <v>1919.76</v>
       </c>
       <c r="G57" t="n">
-        <v>19.6</v>
+        <v>23.3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6094.21</v>
+      </c>
+      <c r="I57" t="n">
+        <v>49125.32</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1919.76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>44646.21</v>
+        <v>11408.43</v>
       </c>
       <c r="C58" t="n">
-        <v>14.3</v>
+        <v>10.7</v>
       </c>
       <c r="D58" t="n">
-        <v>115521.62</v>
+        <v>64417.93</v>
       </c>
       <c r="E58" t="n">
-        <v>19.2</v>
+        <v>18.7</v>
       </c>
       <c r="F58" t="n">
-        <v>23061.23</v>
+        <v>3383.82</v>
       </c>
       <c r="G58" t="n">
-        <v>18.4</v>
+        <v>13.5</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5314.22</v>
+      </c>
+      <c r="I58" t="n">
+        <v>15292.61</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1464.06</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>54033.97</v>
+        <v>15932.12</v>
       </c>
       <c r="C59" t="n">
-        <v>12.7</v>
+        <v>13.9</v>
       </c>
       <c r="D59" t="n">
-        <v>127747.65</v>
+        <v>74159.42</v>
       </c>
       <c r="E59" t="n">
-        <v>18.1</v>
+        <v>19.3</v>
       </c>
       <c r="F59" t="n">
-        <v>40004.49</v>
+        <v>4914.91</v>
       </c>
       <c r="G59" t="n">
-        <v>15.4</v>
+        <v>15</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4523.690000000001</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9741.489999999998</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1531.09</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6094.21</v>
+        <v>20470.06</v>
       </c>
       <c r="C60" t="n">
-        <v>4.3</v>
+        <v>13.5</v>
       </c>
       <c r="D60" t="n">
-        <v>49125.32</v>
+        <v>82086.08</v>
       </c>
       <c r="E60" t="n">
-        <v>17</v>
+        <v>18.3</v>
       </c>
       <c r="F60" t="n">
-        <v>1919.76</v>
+        <v>6654.66</v>
       </c>
       <c r="G60" t="n">
-        <v>23.3</v>
+        <v>15.9</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4537.940000000001</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7926.660000000003</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1739.75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>11408.43</v>
+        <v>25552.9</v>
       </c>
       <c r="C61" t="n">
-        <v>10.7</v>
+        <v>13.3</v>
       </c>
       <c r="D61" t="n">
-        <v>64417.93</v>
+        <v>90082.23</v>
       </c>
       <c r="E61" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="F61" t="n">
-        <v>3383.82</v>
+        <v>9226.23</v>
       </c>
       <c r="G61" t="n">
-        <v>13.5</v>
+        <v>18.3</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5082.84</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7996.149999999994</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2571.57</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>15932.12</v>
+        <v>30303.42</v>
       </c>
       <c r="C62" t="n">
-        <v>13.9</v>
+        <v>15.1</v>
       </c>
       <c r="D62" t="n">
-        <v>74159.42</v>
+        <v>96495.42999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="F62" t="n">
-        <v>4914.91</v>
+        <v>12111.37</v>
       </c>
       <c r="G62" t="n">
-        <v>15</v>
+        <v>25.1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4750.519999999997</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6413.199999999997</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2885.140000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>20470.06</v>
+        <v>33930.2</v>
       </c>
       <c r="C63" t="n">
-        <v>13.5</v>
+        <v>14.7</v>
       </c>
       <c r="D63" t="n">
-        <v>82086.08</v>
+        <v>101548.06</v>
       </c>
       <c r="E63" t="n">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="F63" t="n">
-        <v>6654.66</v>
+        <v>14297.7</v>
       </c>
       <c r="G63" t="n">
-        <v>15.9</v>
+        <v>24.4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3626.779999999999</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5052.630000000005</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2186.33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>25552.9</v>
+        <v>37716.5</v>
       </c>
       <c r="C64" t="n">
-        <v>13.3</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>90082.23</v>
+        <v>106468.04</v>
       </c>
       <c r="E64" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="F64" t="n">
-        <v>9226.23</v>
+        <v>16586.1</v>
       </c>
       <c r="G64" t="n">
-        <v>18.3</v>
+        <v>18.9</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3786.300000000003</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4919.979999999996</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2288.399999999998</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>30303.42</v>
+        <v>41103.06</v>
       </c>
       <c r="C65" t="n">
-        <v>15.1</v>
+        <v>14.4</v>
       </c>
       <c r="D65" t="n">
-        <v>96495.42999999999</v>
+        <v>110926.55</v>
       </c>
       <c r="E65" t="n">
-        <v>19.9</v>
+        <v>19.1</v>
       </c>
       <c r="F65" t="n">
-        <v>12111.37</v>
+        <v>19582.96</v>
       </c>
       <c r="G65" t="n">
-        <v>25.1</v>
+        <v>19.6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3386.559999999998</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4458.510000000009</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2996.860000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>33930.2</v>
+        <v>44646.21</v>
       </c>
       <c r="C66" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="D66" t="n">
-        <v>101548.06</v>
+        <v>115521.62</v>
       </c>
       <c r="E66" t="n">
         <v>19.2</v>
       </c>
       <c r="F66" t="n">
-        <v>14297.7</v>
+        <v>23061.23</v>
       </c>
       <c r="G66" t="n">
-        <v>24.4</v>
+        <v>18.4</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3543.150000000001</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4595.069999999992</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3478.27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>37716.5</v>
+        <v>54033.97</v>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>12.7</v>
       </c>
       <c r="D67" t="n">
-        <v>106468.04</v>
+        <v>127747.65</v>
       </c>
       <c r="E67" t="n">
-        <v>19.2</v>
+        <v>18.1</v>
       </c>
       <c r="F67" t="n">
-        <v>16586.1</v>
+        <v>40004.49</v>
       </c>
       <c r="G67" t="n">
-        <v>18.9</v>
+        <v>15.4</v>
+      </c>
+      <c r="H67" t="n">
+        <v>9387.760000000002</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12226.03</v>
+      </c>
+      <c r="J67" t="n">
+        <v>16943.26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>49050.31</v>
+        <v>7815.75</v>
       </c>
       <c r="C68" t="n">
-        <v>19.3</v>
+        <v>28.2</v>
       </c>
       <c r="D68" t="n">
-        <v>132616.38</v>
+        <v>61359.11</v>
       </c>
       <c r="E68" t="n">
-        <v>19.6</v>
+        <v>24.9</v>
       </c>
       <c r="F68" t="n">
-        <v>21282.62</v>
+        <v>2671.69</v>
       </c>
       <c r="G68" t="n">
-        <v>8.699999999999999</v>
+        <v>39.2</v>
+      </c>
+      <c r="H68" t="n">
+        <v>7815.75</v>
+      </c>
+      <c r="I68" t="n">
+        <v>61359.11</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2671.69</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>53178.25</v>
+        <v>14151.92</v>
       </c>
       <c r="C69" t="n">
-        <v>19.1</v>
+        <v>24</v>
       </c>
       <c r="D69" t="n">
-        <v>137716.46</v>
+        <v>79295.38</v>
       </c>
       <c r="E69" t="n">
-        <v>19.2</v>
+        <v>23.1</v>
       </c>
       <c r="F69" t="n">
-        <v>25116.28</v>
+        <v>4503.35</v>
       </c>
       <c r="G69" t="n">
-        <v>8.9</v>
+        <v>33.1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>6336.17</v>
+      </c>
+      <c r="I69" t="n">
+        <v>17936.27</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1831.66</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>63567.5</v>
+        <v>19575.69</v>
       </c>
       <c r="C70" t="n">
-        <v>15.6</v>
+        <v>22.9</v>
       </c>
       <c r="D70" t="n">
-        <v>151498.71</v>
+        <v>90570.14</v>
       </c>
       <c r="E70" t="n">
-        <v>17.6</v>
+        <v>22.1</v>
       </c>
       <c r="F70" t="n">
-        <v>43247.46</v>
+        <v>6397.11</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.8</v>
+        <v>30.2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5423.769999999999</v>
+      </c>
+      <c r="I70" t="n">
+        <v>11274.75999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1893.759999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7815.75</v>
+        <v>24826.73</v>
       </c>
       <c r="C71" t="n">
-        <v>28.2</v>
+        <v>21.3</v>
       </c>
       <c r="D71" t="n">
-        <v>61359.11</v>
+        <v>99287.33</v>
       </c>
       <c r="E71" t="n">
-        <v>24.9</v>
+        <v>21</v>
       </c>
       <c r="F71" t="n">
-        <v>2671.69</v>
+        <v>8100.73</v>
       </c>
       <c r="G71" t="n">
-        <v>39.2</v>
+        <v>21.7</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5251.040000000001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8717.190000000002</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1703.62</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>14151.92</v>
+        <v>31041.4</v>
       </c>
       <c r="C72" t="n">
-        <v>24</v>
+        <v>21.5</v>
       </c>
       <c r="D72" t="n">
-        <v>79295.38</v>
+        <v>109090.4</v>
       </c>
       <c r="E72" t="n">
-        <v>23.1</v>
+        <v>21.1</v>
       </c>
       <c r="F72" t="n">
-        <v>4503.35</v>
+        <v>10892.1</v>
       </c>
       <c r="G72" t="n">
-        <v>33.1</v>
+        <v>18.1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>6214.670000000002</v>
+      </c>
+      <c r="I72" t="n">
+        <v>9803.069999999992</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2791.370000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>19575.69</v>
+        <v>35797.25</v>
       </c>
       <c r="C73" t="n">
-        <v>22.9</v>
+        <v>18.1</v>
       </c>
       <c r="D73" t="n">
-        <v>90570.14</v>
+        <v>115302.17</v>
       </c>
       <c r="E73" t="n">
-        <v>22.1</v>
+        <v>19.5</v>
       </c>
       <c r="F73" t="n">
-        <v>6397.11</v>
+        <v>13288.59</v>
       </c>
       <c r="G73" t="n">
-        <v>30.2</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4755.849999999999</v>
+      </c>
+      <c r="I73" t="n">
+        <v>6211.770000000004</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2396.49</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>24826.73</v>
+        <v>39999.86</v>
       </c>
       <c r="C74" t="n">
-        <v>21.3</v>
+        <v>17.9</v>
       </c>
       <c r="D74" t="n">
-        <v>99287.33</v>
+        <v>120808.63</v>
       </c>
       <c r="E74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F74" t="n">
-        <v>8100.73</v>
+        <v>15500.53</v>
       </c>
       <c r="G74" t="n">
-        <v>21.7</v>
+        <v>8.4</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4202.610000000001</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5506.460000000006</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2211.940000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>31041.4</v>
+        <v>44930.5</v>
       </c>
       <c r="C75" t="n">
-        <v>21.5</v>
+        <v>19.1</v>
       </c>
       <c r="D75" t="n">
-        <v>109090.4</v>
+        <v>127291.94</v>
       </c>
       <c r="E75" t="n">
-        <v>21.1</v>
+        <v>19.6</v>
       </c>
       <c r="F75" t="n">
-        <v>10892.1</v>
+        <v>18094.21</v>
       </c>
       <c r="G75" t="n">
-        <v>18.1</v>
+        <v>9.1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4930.639999999999</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6483.309999999998</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2593.679999999998</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>35797.25</v>
+        <v>49050.31</v>
       </c>
       <c r="C76" t="n">
-        <v>18.1</v>
+        <v>19.3</v>
       </c>
       <c r="D76" t="n">
-        <v>115302.17</v>
+        <v>132616.38</v>
       </c>
       <c r="E76" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="F76" t="n">
-        <v>13288.59</v>
+        <v>21282.62</v>
       </c>
       <c r="G76" t="n">
-        <v>9.699999999999999</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4119.809999999998</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5324.440000000002</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3188.41</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>39999.86</v>
+        <v>53178.25</v>
       </c>
       <c r="C77" t="n">
-        <v>17.9</v>
+        <v>19.1</v>
       </c>
       <c r="D77" t="n">
-        <v>120808.63</v>
+        <v>137716.46</v>
       </c>
       <c r="E77" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="F77" t="n">
-        <v>15500.53</v>
+        <v>25116.28</v>
       </c>
       <c r="G77" t="n">
-        <v>8.4</v>
+        <v>8.9</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4127.940000000002</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5100.079999999987</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3833.66</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>44930.5</v>
+        <v>63567.5</v>
       </c>
       <c r="C78" t="n">
-        <v>19.1</v>
+        <v>15.6</v>
       </c>
       <c r="D78" t="n">
-        <v>127291.94</v>
+        <v>151498.71</v>
       </c>
       <c r="E78" t="n">
-        <v>19.6</v>
+        <v>17.6</v>
       </c>
       <c r="F78" t="n">
-        <v>18094.21</v>
+        <v>43247.46</v>
       </c>
       <c r="G78" t="n">
-        <v>9.1</v>
+        <v>-0.8</v>
+      </c>
+      <c r="H78" t="n">
+        <v>10389.25</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13782.25</v>
+      </c>
+      <c r="J78" t="n">
+        <v>18131.18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>60899.19</v>
+        <v>8347.889999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>24.2</v>
+        <v>6.8</v>
       </c>
       <c r="D79" t="n">
-        <v>164509.71</v>
+        <v>72351.5</v>
       </c>
       <c r="E79" t="n">
-        <v>24</v>
+        <v>17.9</v>
       </c>
       <c r="F79" t="n">
-        <v>23164.32</v>
+        <v>2705.44</v>
       </c>
       <c r="G79" t="n">
-        <v>8.800000000000001</v>
+        <v>1.3</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8347.889999999999</v>
+      </c>
+      <c r="I79" t="n">
+        <v>72351.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2705.44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>66232.44</v>
+        <v>15909.43</v>
       </c>
       <c r="C80" t="n">
-        <v>24.5</v>
+        <v>12.4</v>
       </c>
       <c r="D80" t="n">
-        <v>171063.18</v>
+        <v>96294.58</v>
       </c>
       <c r="E80" t="n">
-        <v>24.2</v>
+        <v>21.4</v>
       </c>
       <c r="F80" t="n">
-        <v>27261.3</v>
+        <v>5023.08</v>
       </c>
       <c r="G80" t="n">
-        <v>8.5</v>
+        <v>11.5</v>
+      </c>
+      <c r="H80" t="n">
+        <v>7561.540000000001</v>
+      </c>
+      <c r="I80" t="n">
+        <v>23943.08</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2317.64</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>78135.98</v>
+        <v>22810.28</v>
       </c>
       <c r="C81" t="n">
-        <v>21.3</v>
+        <v>16.5</v>
       </c>
       <c r="D81" t="n">
-        <v>186454.97</v>
+        <v>110685.49</v>
       </c>
       <c r="E81" t="n">
-        <v>22.9</v>
+        <v>22.2</v>
       </c>
       <c r="F81" t="n">
-        <v>47767.25</v>
+        <v>7027.85</v>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>9.9</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6900.849999999999</v>
+      </c>
+      <c r="I81" t="n">
+        <v>14390.91</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2004.77</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8347.889999999999</v>
+        <v>29717.45</v>
       </c>
       <c r="C82" t="n">
-        <v>6.8</v>
+        <v>19.7</v>
       </c>
       <c r="D82" t="n">
-        <v>72351.5</v>
+        <v>122075.93</v>
       </c>
       <c r="E82" t="n">
-        <v>17.9</v>
+        <v>23</v>
       </c>
       <c r="F82" t="n">
-        <v>2705.44</v>
+        <v>9074.26</v>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>12</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6907.170000000002</v>
+      </c>
+      <c r="I82" t="n">
+        <v>11390.43999999999</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2046.41</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>15909.43</v>
+        <v>37537.14</v>
       </c>
       <c r="C83" t="n">
-        <v>12.4</v>
+        <v>20.9</v>
       </c>
       <c r="D83" t="n">
-        <v>96294.58</v>
+        <v>134015.36</v>
       </c>
       <c r="E83" t="n">
-        <v>21.4</v>
+        <v>22.9</v>
       </c>
       <c r="F83" t="n">
-        <v>5023.08</v>
+        <v>12173.41</v>
       </c>
       <c r="G83" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
+      </c>
+      <c r="H83" t="n">
+        <v>7819.689999999999</v>
+      </c>
+      <c r="I83" t="n">
+        <v>11939.42999999999</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3099.15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>22810.28</v>
+        <v>43797.74</v>
       </c>
       <c r="C84" t="n">
-        <v>16.5</v>
+        <v>22.3</v>
       </c>
       <c r="D84" t="n">
-        <v>110685.49</v>
+        <v>142557.71</v>
       </c>
       <c r="E84" t="n">
-        <v>22.2</v>
+        <v>23.6</v>
       </c>
       <c r="F84" t="n">
-        <v>7027.85</v>
+        <v>14706.81</v>
       </c>
       <c r="G84" t="n">
-        <v>9.9</v>
+        <v>10.7</v>
+      </c>
+      <c r="H84" t="n">
+        <v>6260.599999999999</v>
+      </c>
+      <c r="I84" t="n">
+        <v>8542.350000000006</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2533.4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>29717.45</v>
+        <v>49349.24</v>
       </c>
       <c r="C85" t="n">
-        <v>19.7</v>
+        <v>23.4</v>
       </c>
       <c r="D85" t="n">
-        <v>122075.93</v>
+        <v>149436.45</v>
       </c>
       <c r="E85" t="n">
-        <v>23</v>
+        <v>23.7</v>
       </c>
       <c r="F85" t="n">
-        <v>9074.26</v>
+        <v>17045.39</v>
       </c>
       <c r="G85" t="n">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="H85" t="n">
+        <v>5551.5</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6878.74000000002</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2338.58</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>37537.14</v>
+        <v>55531.57</v>
       </c>
       <c r="C86" t="n">
-        <v>20.9</v>
+        <v>23.6</v>
       </c>
       <c r="D86" t="n">
-        <v>134015.36</v>
+        <v>157312.73</v>
       </c>
       <c r="E86" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="F86" t="n">
-        <v>12173.41</v>
+        <v>20083.21</v>
       </c>
       <c r="G86" t="n">
-        <v>11.8</v>
+        <v>11</v>
+      </c>
+      <c r="H86" t="n">
+        <v>6182.330000000002</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7876.279999999999</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3037.82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>43797.74</v>
+        <v>60899.19</v>
       </c>
       <c r="C87" t="n">
-        <v>22.3</v>
+        <v>24.2</v>
       </c>
       <c r="D87" t="n">
-        <v>142557.71</v>
+        <v>164509.71</v>
       </c>
       <c r="E87" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="F87" t="n">
-        <v>14706.81</v>
+        <v>23164.32</v>
       </c>
       <c r="G87" t="n">
-        <v>10.7</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5367.620000000003</v>
+      </c>
+      <c r="I87" t="n">
+        <v>7196.979999999981</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3081.110000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>49349.24</v>
+        <v>66232.44</v>
       </c>
       <c r="C88" t="n">
-        <v>23.4</v>
+        <v>24.5</v>
       </c>
       <c r="D88" t="n">
-        <v>149436.45</v>
+        <v>171063.18</v>
       </c>
       <c r="E88" t="n">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="F88" t="n">
-        <v>17045.39</v>
+        <v>27261.3</v>
       </c>
       <c r="G88" t="n">
-        <v>10</v>
+        <v>8.5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5333.25</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6553.470000000001</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4096.98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>55531.57</v>
+        <v>78135.98</v>
       </c>
       <c r="C89" t="n">
-        <v>23.6</v>
+        <v>21.3</v>
       </c>
       <c r="D89" t="n">
-        <v>157312.73</v>
+        <v>186454.97</v>
       </c>
       <c r="E89" t="n">
-        <v>23.6</v>
+        <v>22.9</v>
       </c>
       <c r="F89" t="n">
-        <v>20083.21</v>
+        <v>47767.25</v>
       </c>
       <c r="G89" t="n">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="H89" t="n">
+        <v>11903.53999999999</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15391.79000000001</v>
+      </c>
+      <c r="J89" t="n">
+        <v>20505.95</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>65113.22</v>
+        <v>10423.07</v>
       </c>
       <c r="C90" t="n">
-        <v>6.9</v>
+        <v>24.9</v>
       </c>
       <c r="D90" t="n">
-        <v>196550.5766</v>
+        <v>96909.14</v>
       </c>
       <c r="E90" t="n">
-        <v>19.5</v>
+        <v>33.9</v>
       </c>
       <c r="F90" t="n">
-        <v>24931.233</v>
+        <v>3522.39</v>
       </c>
       <c r="G90" t="n">
-        <v>7.6</v>
+        <v>30.2</v>
+      </c>
+      <c r="H90" t="n">
+        <v>10423.07</v>
+      </c>
+      <c r="I90" t="n">
+        <v>96909.14</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3522.39</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>69537.7</v>
+        <v>19862.17</v>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>24.8</v>
       </c>
       <c r="D91" t="n">
-        <v>202259.61</v>
+        <v>124512.6992</v>
       </c>
       <c r="E91" t="n">
-        <v>18.2</v>
+        <v>29.3</v>
       </c>
       <c r="F91" t="n">
-        <v>28628.46</v>
+        <v>6397.5556</v>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>27.4</v>
+      </c>
+      <c r="H91" t="n">
+        <v>9439.099999999999</v>
+      </c>
+      <c r="I91" t="n">
+        <v>27603.5592</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2875.1656</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>79889.10000000001</v>
+        <v>27422.3</v>
       </c>
       <c r="C92" t="n">
-        <v>1.4</v>
+        <v>20.2</v>
       </c>
       <c r="D92" t="n">
-        <v>216671.3574</v>
+        <v>140806.0174</v>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>27.2</v>
       </c>
       <c r="F92" t="n">
-        <v>47749.7305</v>
+        <v>8448.3092</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.2</v>
+        <v>20.2</v>
+      </c>
+      <c r="H92" t="n">
+        <v>7560.130000000001</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16293.31820000001</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2050.7536</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>10423.07</v>
+        <v>35265.55</v>
       </c>
       <c r="C93" t="n">
-        <v>24.9</v>
+        <v>18.7</v>
       </c>
       <c r="D93" t="n">
-        <v>96909.14</v>
+        <v>154488.6966</v>
       </c>
       <c r="E93" t="n">
-        <v>33.9</v>
+        <v>26.6</v>
       </c>
       <c r="F93" t="n">
-        <v>3522.39</v>
+        <v>10772.8799</v>
       </c>
       <c r="G93" t="n">
-        <v>30.2</v>
+        <v>18.7</v>
+      </c>
+      <c r="H93" t="n">
+        <v>7843.250000000004</v>
+      </c>
+      <c r="I93" t="n">
+        <v>13682.67919999998</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2324.5707</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>19862.17</v>
+        <v>44309.12</v>
       </c>
       <c r="C94" t="n">
-        <v>24.8</v>
+        <v>18</v>
       </c>
       <c r="D94" t="n">
-        <v>124512.6992</v>
+        <v>168266.4465</v>
       </c>
       <c r="E94" t="n">
-        <v>29.3</v>
+        <v>25.6</v>
       </c>
       <c r="F94" t="n">
-        <v>6397.5556</v>
+        <v>13861.9773</v>
       </c>
       <c r="G94" t="n">
-        <v>27.4</v>
+        <v>13.9</v>
+      </c>
+      <c r="H94" t="n">
+        <v>9043.57</v>
+      </c>
+      <c r="I94" t="n">
+        <v>13777.7499</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3089.097400000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>27422.3</v>
+        <v>50170.64</v>
       </c>
       <c r="C95" t="n">
-        <v>20.2</v>
+        <v>14.6</v>
       </c>
       <c r="D95" t="n">
-        <v>140806.0174</v>
+        <v>176672.4899</v>
       </c>
       <c r="E95" t="n">
-        <v>27.2</v>
+        <v>23.9</v>
       </c>
       <c r="F95" t="n">
-        <v>8448.3092</v>
+        <v>16532.753</v>
       </c>
       <c r="G95" t="n">
-        <v>20.2</v>
+        <v>12.4</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5861.519999999997</v>
+      </c>
+      <c r="I95" t="n">
+        <v>8406.043399999995</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2670.7757</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>35265.55</v>
+        <v>55567.37</v>
       </c>
       <c r="C96" t="n">
-        <v>18.7</v>
+        <v>12.6</v>
       </c>
       <c r="D96" t="n">
-        <v>154488.6966</v>
+        <v>183584.2798</v>
       </c>
       <c r="E96" t="n">
-        <v>26.6</v>
+        <v>22.9</v>
       </c>
       <c r="F96" t="n">
-        <v>10772.8799</v>
+        <v>18987.2302</v>
       </c>
       <c r="G96" t="n">
-        <v>18.7</v>
+        <v>11.4</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5396.730000000003</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6911.789900000003</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2454.477200000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>44309.12</v>
+        <v>60840.17</v>
       </c>
       <c r="C97" t="n">
-        <v>18</v>
+        <v>9.6</v>
       </c>
       <c r="D97" t="n">
-        <v>168266.4465</v>
+        <v>190669.0538</v>
       </c>
       <c r="E97" t="n">
-        <v>25.6</v>
+        <v>21.2</v>
       </c>
       <c r="F97" t="n">
-        <v>13861.9773</v>
+        <v>21820.0874</v>
       </c>
       <c r="G97" t="n">
-        <v>13.9</v>
+        <v>8.6</v>
+      </c>
+      <c r="H97" t="n">
+        <v>5272.799999999996</v>
+      </c>
+      <c r="I97" t="n">
+        <v>7084.774000000005</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2832.857199999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>50170.64</v>
+        <v>65113.22</v>
       </c>
       <c r="C98" t="n">
-        <v>14.6</v>
+        <v>6.9</v>
       </c>
       <c r="D98" t="n">
-        <v>176672.4899</v>
+        <v>196550.5766</v>
       </c>
       <c r="E98" t="n">
-        <v>23.9</v>
+        <v>19.5</v>
       </c>
       <c r="F98" t="n">
-        <v>16532.753</v>
+        <v>24931.233</v>
       </c>
       <c r="G98" t="n">
-        <v>12.4</v>
+        <v>7.6</v>
+      </c>
+      <c r="H98" t="n">
+        <v>4273.050000000003</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5881.522800000006</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3111.1456</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>55567.37</v>
+        <v>69537.7</v>
       </c>
       <c r="C99" t="n">
-        <v>12.6</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>183584.2798</v>
+        <v>202259.61</v>
       </c>
       <c r="E99" t="n">
-        <v>22.9</v>
+        <v>18.2</v>
       </c>
       <c r="F99" t="n">
-        <v>18987.2302</v>
+        <v>28628.46</v>
       </c>
       <c r="G99" t="n">
-        <v>11.4</v>
+        <v>5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>4424.479999999996</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5709.033399999986</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3697.226999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>60840.17</v>
+        <v>79889.10000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>9.6</v>
+        <v>1.4</v>
       </c>
       <c r="D100" t="n">
-        <v>190669.0538</v>
+        <v>216671.3574</v>
       </c>
       <c r="E100" t="n">
-        <v>21.2</v>
+        <v>16</v>
       </c>
       <c r="F100" t="n">
-        <v>21820.0874</v>
+        <v>47749.7305</v>
       </c>
       <c r="G100" t="n">
-        <v>8.6</v>
+        <v>-4.2</v>
+      </c>
+      <c r="H100" t="n">
+        <v>10351.40000000001</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14411.74740000002</v>
+      </c>
+      <c r="J100" t="n">
+        <v>19121.2705</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>65391.6</v>
+        <v>8457.280000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4</v>
+        <v>-18.9</v>
       </c>
       <c r="D101" t="n">
-        <v>226093.6462</v>
+        <v>108862.4</v>
       </c>
       <c r="E101" t="n">
-        <v>15</v>
+        <v>12.3</v>
       </c>
       <c r="F101" t="n">
-        <v>31179.7726</v>
+        <v>4525.77</v>
       </c>
       <c r="G101" t="n">
-        <v>25.1</v>
+        <v>28.5</v>
+      </c>
+      <c r="H101" t="n">
+        <v>8457.280000000001</v>
+      </c>
+      <c r="I101" t="n">
+        <v>108862.4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>4525.77</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>78485.08</v>
+        <v>15945.59</v>
       </c>
       <c r="C102" t="n">
-        <v>12.9</v>
+        <v>-19.7</v>
       </c>
       <c r="D102" t="n">
-        <v>234587.33</v>
+        <v>138118.8043</v>
       </c>
       <c r="E102" t="n">
-        <v>16</v>
+        <v>10.9</v>
       </c>
       <c r="F102" t="n">
-        <v>36700.44</v>
+        <v>8117.3387</v>
       </c>
       <c r="G102" t="n">
-        <v>28.2</v>
+        <v>26.9</v>
+      </c>
+      <c r="H102" t="n">
+        <v>7488.309999999999</v>
+      </c>
+      <c r="I102" t="n">
+        <v>29256.40429999999</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3591.5687</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>92463.47</v>
+        <v>22332.27</v>
       </c>
       <c r="C103" t="n">
-        <v>10.5</v>
+        <v>-18.6</v>
       </c>
       <c r="D103" t="n">
-        <v>250804.2477</v>
+        <v>156344.6</v>
       </c>
       <c r="E103" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="F103" t="n">
-        <v>57694.4316</v>
+        <v>10858.25</v>
       </c>
       <c r="G103" t="n">
-        <v>6.2</v>
+        <v>28.5</v>
+      </c>
+      <c r="H103" t="n">
+        <v>6386.68</v>
+      </c>
+      <c r="I103" t="n">
+        <v>18225.79570000002</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2740.9113</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>8457.280000000001</v>
+        <v>28682.02</v>
       </c>
       <c r="C104" t="n">
-        <v>-18.9</v>
+        <v>-18.7</v>
       </c>
       <c r="D104" t="n">
-        <v>108862.4</v>
+        <v>170322.3975</v>
       </c>
       <c r="E104" t="n">
-        <v>12.3</v>
+        <v>10.2</v>
       </c>
       <c r="F104" t="n">
-        <v>4525.77</v>
+        <v>13320.4287</v>
       </c>
       <c r="G104" t="n">
-        <v>28.5</v>
+        <v>23.6</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6349.75</v>
+      </c>
+      <c r="I104" t="n">
+        <v>13977.79749999999</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2462.1787</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>15945.59</v>
+        <v>38487.29</v>
       </c>
       <c r="C105" t="n">
-        <v>-19.7</v>
+        <v>-13.1</v>
       </c>
       <c r="D105" t="n">
-        <v>138118.8043</v>
+        <v>187413.99</v>
       </c>
       <c r="E105" t="n">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="F105" t="n">
-        <v>8117.3387</v>
+        <v>17036.63</v>
       </c>
       <c r="G105" t="n">
-        <v>26.9</v>
+        <v>22.9</v>
+      </c>
+      <c r="H105" t="n">
+        <v>9805.27</v>
+      </c>
+      <c r="I105" t="n">
+        <v>17091.5925</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3716.201300000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>22332.27</v>
+        <v>44182.22</v>
       </c>
       <c r="C106" t="n">
-        <v>-18.6</v>
+        <v>-11.9</v>
       </c>
       <c r="D106" t="n">
-        <v>156344.6</v>
+        <v>196148.8158</v>
       </c>
       <c r="E106" t="n">
         <v>11</v>
       </c>
       <c r="F106" t="n">
-        <v>10858.25</v>
+        <v>20929.6854</v>
       </c>
       <c r="G106" t="n">
-        <v>28.5</v>
+        <v>26.6</v>
+      </c>
+      <c r="H106" t="n">
+        <v>5694.93</v>
+      </c>
+      <c r="I106" t="n">
+        <v>8734.825800000021</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3893.055399999997</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>28682.02</v>
+        <v>50616.41</v>
       </c>
       <c r="C107" t="n">
-        <v>-18.7</v>
+        <v>-8.9</v>
       </c>
       <c r="D107" t="n">
-        <v>170322.3975</v>
+        <v>205686.26</v>
       </c>
       <c r="E107" t="n">
-        <v>10.2</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
-        <v>13320.4287</v>
+        <v>24083.29</v>
       </c>
       <c r="G107" t="n">
-        <v>23.6</v>
+        <v>26.8</v>
+      </c>
+      <c r="H107" t="n">
+        <v>6434.190000000002</v>
+      </c>
+      <c r="I107" t="n">
+        <v>9537.444199999998</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3153.604600000002</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>38487.29</v>
+        <v>58696.8</v>
       </c>
       <c r="C108" t="n">
-        <v>-13.1</v>
+        <v>-3.5</v>
       </c>
       <c r="D108" t="n">
-        <v>187413.99</v>
+        <v>217289.1753</v>
       </c>
       <c r="E108" t="n">
-        <v>11.4</v>
+        <v>14</v>
       </c>
       <c r="F108" t="n">
-        <v>17036.63</v>
+        <v>27656.1372</v>
       </c>
       <c r="G108" t="n">
-        <v>22.9</v>
+        <v>26.7</v>
+      </c>
+      <c r="H108" t="n">
+        <v>8080.389999999999</v>
+      </c>
+      <c r="I108" t="n">
+        <v>11602.91529999999</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3572.8472</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>44182.22</v>
+        <v>65391.6</v>
       </c>
       <c r="C109" t="n">
-        <v>-11.9</v>
+        <v>0.4</v>
       </c>
       <c r="D109" t="n">
-        <v>196148.8158</v>
+        <v>226093.6462</v>
       </c>
       <c r="E109" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F109" t="n">
-        <v>20929.6854</v>
+        <v>31179.7726</v>
       </c>
       <c r="G109" t="n">
-        <v>26.6</v>
+        <v>25.1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>6694.799999999996</v>
+      </c>
+      <c r="I109" t="n">
+        <v>8804.470899999986</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3523.635399999999</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>50616.41</v>
+        <v>78485.08</v>
       </c>
       <c r="C110" t="n">
-        <v>-8.9</v>
+        <v>12.9</v>
       </c>
       <c r="D110" t="n">
-        <v>205686.26</v>
+        <v>234587.33</v>
       </c>
       <c r="E110" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F110" t="n">
-        <v>24083.29</v>
+        <v>36700.44</v>
       </c>
       <c r="G110" t="n">
-        <v>26.8</v>
+        <v>28.2</v>
+      </c>
+      <c r="H110" t="n">
+        <v>13093.48</v>
+      </c>
+      <c r="I110" t="n">
+        <v>8493.683799999999</v>
+      </c>
+      <c r="J110" t="n">
+        <v>5520.667400000002</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>58696.8</v>
+        <v>92463.47</v>
       </c>
       <c r="C111" t="n">
-        <v>-3.5</v>
+        <v>10.5</v>
       </c>
       <c r="D111" t="n">
-        <v>217289.1753</v>
+        <v>250804.2477</v>
       </c>
       <c r="E111" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="F111" t="n">
-        <v>27656.1372</v>
+        <v>57694.4316</v>
       </c>
       <c r="G111" t="n">
-        <v>26.7</v>
+        <v>6.2</v>
+      </c>
+      <c r="H111" t="n">
+        <v>13978.39</v>
+      </c>
+      <c r="I111" t="n">
+        <v>16216.91770000002</v>
+      </c>
+      <c r="J111" t="n">
+        <v>20993.9916</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>104171.7861</v>
+        <v>11834.33</v>
       </c>
       <c r="C112" t="n">
-        <v>59.3</v>
+        <v>39.2</v>
       </c>
       <c r="D112" t="n">
-        <v>286928.9549</v>
+        <v>161289.0071</v>
       </c>
       <c r="E112" t="n">
-        <v>26.9</v>
+        <v>28.7</v>
       </c>
       <c r="F112" t="n">
-        <v>33971.5161</v>
+        <v>4788.5681</v>
       </c>
       <c r="G112" t="n">
-        <v>9</v>
+        <v>5.8</v>
+      </c>
+      <c r="H112" t="n">
+        <v>11834.33</v>
+      </c>
+      <c r="I112" t="n">
+        <v>161289.0071</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4788.5681</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>114721.5346</v>
+        <v>25945.96</v>
       </c>
       <c r="C113" t="n">
-        <v>46.2</v>
+        <v>62.7</v>
       </c>
       <c r="D113" t="n">
-        <v>298365.4335</v>
+        <v>187218.5624</v>
       </c>
       <c r="E113" t="n">
-        <v>27.2</v>
+        <v>35.5</v>
       </c>
       <c r="F113" t="n">
-        <v>39321.9336</v>
+        <v>8913.973599999999</v>
       </c>
       <c r="G113" t="n">
-        <v>7.1</v>
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H113" t="n">
+        <v>14111.63</v>
+      </c>
+      <c r="I113" t="n">
+        <v>25929.55530000001</v>
+      </c>
+      <c r="J113" t="n">
+        <v>4125.405499999999</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>129467.9315</v>
+        <v>36372.44</v>
       </c>
       <c r="C114" t="n">
-        <v>38.8</v>
+        <v>62.9</v>
       </c>
       <c r="D114" t="n">
-        <v>314942.5906</v>
+        <v>204490.2769</v>
       </c>
       <c r="E114" t="n">
-        <v>25.3</v>
+        <v>30.8</v>
       </c>
       <c r="F114" t="n">
-        <v>61215.7219</v>
+        <v>12027.7399</v>
       </c>
       <c r="G114" t="n">
-        <v>2.7</v>
+        <v>10.8</v>
+      </c>
+      <c r="H114" t="n">
+        <v>10426.48</v>
+      </c>
+      <c r="I114" t="n">
+        <v>17271.7145</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3113.766300000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>11834.33</v>
+        <v>48662.12</v>
       </c>
       <c r="C115" t="n">
-        <v>39.2</v>
+        <v>69.7</v>
       </c>
       <c r="D115" t="n">
-        <v>161289.0071</v>
+        <v>220620.18</v>
       </c>
       <c r="E115" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="F115" t="n">
-        <v>4788.5681</v>
+        <v>15290.87</v>
       </c>
       <c r="G115" t="n">
-        <v>5.8</v>
+        <v>14.8</v>
+      </c>
+      <c r="H115" t="n">
+        <v>12289.68</v>
+      </c>
+      <c r="I115" t="n">
+        <v>16129.9031</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3263.1301</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>25945.96</v>
+        <v>63663.6</v>
       </c>
       <c r="C116" t="n">
-        <v>62.7</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>187218.5624</v>
+        <v>239045.43</v>
       </c>
       <c r="E116" t="n">
-        <v>35.5</v>
+        <v>27.6</v>
       </c>
       <c r="F116" t="n">
-        <v>8913.973599999999</v>
+        <v>19646.65</v>
       </c>
       <c r="G116" t="n">
-        <v>9.800000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="H116" t="n">
+        <v>15001.48</v>
+      </c>
+      <c r="I116" t="n">
+        <v>18425.25</v>
+      </c>
+      <c r="J116" t="n">
+        <v>4355.780000000001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>36372.44</v>
+        <v>73276.34</v>
       </c>
       <c r="C117" t="n">
-        <v>62.9</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>204490.2769</v>
+        <v>251622.7554</v>
       </c>
       <c r="E117" t="n">
-        <v>30.8</v>
+        <v>28.3</v>
       </c>
       <c r="F117" t="n">
-        <v>12027.7399</v>
+        <v>23093.792</v>
       </c>
       <c r="G117" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
+      </c>
+      <c r="H117" t="n">
+        <v>9612.739999999998</v>
+      </c>
+      <c r="I117" t="n">
+        <v>12577.3254</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3447.142</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>48662.12</v>
+        <v>83244.42</v>
       </c>
       <c r="C118" t="n">
-        <v>69.7</v>
+        <v>64.5</v>
       </c>
       <c r="D118" t="n">
-        <v>220620.18</v>
+        <v>263220.76</v>
       </c>
       <c r="E118" t="n">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="F118" t="n">
-        <v>15290.87</v>
+        <v>26179.65</v>
       </c>
       <c r="G118" t="n">
-        <v>14.8</v>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>9968.080000000002</v>
+      </c>
+      <c r="I118" t="n">
+        <v>11598.00460000001</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3085.858</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>63663.6</v>
+        <v>94408.23</v>
       </c>
       <c r="C119" t="n">
-        <v>65.40000000000001</v>
+        <v>60.8</v>
       </c>
       <c r="D119" t="n">
-        <v>239045.43</v>
+        <v>275631.78</v>
       </c>
       <c r="E119" t="n">
-        <v>27.6</v>
+        <v>26.9</v>
       </c>
       <c r="F119" t="n">
-        <v>19646.65</v>
+        <v>29880.58</v>
       </c>
       <c r="G119" t="n">
-        <v>15.5</v>
+        <v>8.1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>11163.81</v>
+      </c>
+      <c r="I119" t="n">
+        <v>12411.02000000002</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3700.93</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>73276.34</v>
+        <v>104171.7861</v>
       </c>
       <c r="C120" t="n">
-        <v>65.90000000000001</v>
+        <v>59.3</v>
       </c>
       <c r="D120" t="n">
-        <v>251622.7554</v>
+        <v>286928.9549</v>
       </c>
       <c r="E120" t="n">
-        <v>28.3</v>
+        <v>26.9</v>
       </c>
       <c r="F120" t="n">
-        <v>23093.792</v>
+        <v>33971.5161</v>
       </c>
       <c r="G120" t="n">
-        <v>10.5</v>
+        <v>9</v>
+      </c>
+      <c r="H120" t="n">
+        <v>9763.556100000002</v>
+      </c>
+      <c r="I120" t="n">
+        <v>11297.17489999998</v>
+      </c>
+      <c r="J120" t="n">
+        <v>4090.936099999999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>83244.42</v>
+        <v>114721.5346</v>
       </c>
       <c r="C121" t="n">
-        <v>64.5</v>
+        <v>46.2</v>
       </c>
       <c r="D121" t="n">
-        <v>263220.76</v>
+        <v>298365.4335</v>
       </c>
       <c r="E121" t="n">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="F121" t="n">
-        <v>26179.65</v>
+        <v>39321.9336</v>
       </c>
       <c r="G121" t="n">
-        <v>8.800000000000001</v>
+        <v>7.1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>10549.7485</v>
+      </c>
+      <c r="I121" t="n">
+        <v>11436.47859999997</v>
+      </c>
+      <c r="J121" t="n">
+        <v>5350.417499999996</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>94408.23</v>
+        <v>129467.9315</v>
       </c>
       <c r="C122" t="n">
-        <v>60.8</v>
+        <v>38.8</v>
       </c>
       <c r="D122" t="n">
-        <v>275631.78</v>
+        <v>314942.5906</v>
       </c>
       <c r="E122" t="n">
-        <v>26.9</v>
+        <v>25.3</v>
       </c>
       <c r="F122" t="n">
-        <v>29880.58</v>
+        <v>61215.7219</v>
       </c>
       <c r="G122" t="n">
-        <v>8.1</v>
+        <v>2.7</v>
+      </c>
+      <c r="H122" t="n">
+        <v>14746.39690000001</v>
+      </c>
+      <c r="I122" t="n">
+        <v>16577.15710000001</v>
+      </c>
+      <c r="J122" t="n">
+        <v>21893.7883</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>124114.708</v>
+        <v>14838.4919</v>
       </c>
       <c r="C123" t="n">
-        <v>19.1</v>
+        <v>25.4</v>
       </c>
       <c r="D123" t="n">
-        <v>363711.5512</v>
+        <v>224048.8473</v>
       </c>
       <c r="E123" t="n">
-        <v>26.8</v>
+        <v>38.9</v>
       </c>
       <c r="F123" t="n">
-        <v>39952.8073</v>
+        <v>5366.2486</v>
       </c>
       <c r="G123" t="n">
-        <v>17.6</v>
+        <v>12.1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>14838.4919</v>
+      </c>
+      <c r="I123" t="n">
+        <v>224048.8473</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5366.2486</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>134939.7557</v>
+        <v>31025.2945</v>
       </c>
       <c r="C124" t="n">
-        <v>17.6</v>
+        <v>19.6</v>
       </c>
       <c r="D124" t="n">
-        <v>376013.9842</v>
+        <v>251713.824</v>
       </c>
       <c r="E124" t="n">
-        <v>26</v>
+        <v>34.4</v>
       </c>
       <c r="F124" t="n">
-        <v>47767.4142</v>
+        <v>10229.0811</v>
       </c>
       <c r="G124" t="n">
-        <v>21.5</v>
+        <v>14.8</v>
+      </c>
+      <c r="H124" t="n">
+        <v>16186.8026</v>
+      </c>
+      <c r="I124" t="n">
+        <v>27664.9767</v>
+      </c>
+      <c r="J124" t="n">
+        <v>4862.8325</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>146034.5653</v>
+        <v>44088.6567</v>
       </c>
       <c r="C125" t="n">
-        <v>12.9</v>
+        <v>21.2</v>
       </c>
       <c r="D125" t="n">
-        <v>388438.5903</v>
+        <v>270474.005</v>
       </c>
       <c r="E125" t="n">
-        <v>23.4</v>
+        <v>32.3</v>
       </c>
       <c r="F125" t="n">
-        <v>71692.3328</v>
+        <v>13685.4476</v>
       </c>
       <c r="G125" t="n">
-        <v>13</v>
+        <v>13.8</v>
+      </c>
+      <c r="H125" t="n">
+        <v>13063.3622</v>
+      </c>
+      <c r="I125" t="n">
+        <v>18760.18100000001</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3456.3665</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>14838.4919</v>
+        <v>58698.9741</v>
       </c>
       <c r="C126" t="n">
-        <v>25.4</v>
+        <v>20.6</v>
       </c>
       <c r="D126" t="n">
-        <v>224048.8473</v>
+        <v>289145.9421</v>
       </c>
       <c r="E126" t="n">
-        <v>38.9</v>
+        <v>31.1</v>
       </c>
       <c r="F126" t="n">
-        <v>5366.2486</v>
+        <v>17238.0376</v>
       </c>
       <c r="G126" t="n">
-        <v>12.1</v>
+        <v>12.7</v>
+      </c>
+      <c r="H126" t="n">
+        <v>14610.3174</v>
+      </c>
+      <c r="I126" t="n">
+        <v>18671.93709999998</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3552.59</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>31025.2945</v>
+        <v>76865.7533</v>
       </c>
       <c r="C127" t="n">
-        <v>19.6</v>
+        <v>20.7</v>
       </c>
       <c r="D127" t="n">
-        <v>251713.824</v>
+        <v>310795.1705</v>
       </c>
       <c r="E127" t="n">
-        <v>34.4</v>
+        <v>30</v>
       </c>
       <c r="F127" t="n">
-        <v>10229.0811</v>
+        <v>22059.0228</v>
       </c>
       <c r="G127" t="n">
-        <v>14.8</v>
+        <v>12.3</v>
+      </c>
+      <c r="H127" t="n">
+        <v>18166.7792</v>
+      </c>
+      <c r="I127" t="n">
+        <v>21649.22840000002</v>
+      </c>
+      <c r="J127" t="n">
+        <v>4820.985199999999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>44088.6567</v>
+        <v>89117.85340000001</v>
       </c>
       <c r="C128" t="n">
-        <v>21.2</v>
+        <v>21.6</v>
       </c>
       <c r="D128" t="n">
-        <v>270474.005</v>
+        <v>325047.8711</v>
       </c>
       <c r="E128" t="n">
-        <v>32.3</v>
+        <v>29.2</v>
       </c>
       <c r="F128" t="n">
-        <v>13685.4476</v>
+        <v>26017.2921</v>
       </c>
       <c r="G128" t="n">
-        <v>13.8</v>
+        <v>12.7</v>
+      </c>
+      <c r="H128" t="n">
+        <v>12252.10010000001</v>
+      </c>
+      <c r="I128" t="n">
+        <v>14252.70059999998</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3958.2693</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>58698.9741</v>
+        <v>102089.3477</v>
       </c>
       <c r="C129" t="n">
-        <v>20.6</v>
+        <v>22.6</v>
       </c>
       <c r="D129" t="n">
-        <v>289145.9421</v>
+        <v>339162.7428</v>
       </c>
       <c r="E129" t="n">
-        <v>31.1</v>
+        <v>28.9</v>
       </c>
       <c r="F129" t="n">
-        <v>17238.0376</v>
+        <v>29742.1319</v>
       </c>
       <c r="G129" t="n">
-        <v>12.7</v>
+        <v>13.6</v>
+      </c>
+      <c r="H129" t="n">
+        <v>12971.49429999999</v>
+      </c>
+      <c r="I129" t="n">
+        <v>14114.87170000002</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3724.839800000002</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>76865.7533</v>
+        <v>114479.7668</v>
       </c>
       <c r="C130" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="D130" t="n">
-        <v>310795.1705</v>
+        <v>353099.455</v>
       </c>
       <c r="E130" t="n">
-        <v>30</v>
+        <v>28.1</v>
       </c>
       <c r="F130" t="n">
-        <v>22059.0228</v>
+        <v>34845.1798</v>
       </c>
       <c r="G130" t="n">
-        <v>12.3</v>
+        <v>16.6</v>
+      </c>
+      <c r="H130" t="n">
+        <v>12390.4191</v>
+      </c>
+      <c r="I130" t="n">
+        <v>13936.71220000001</v>
+      </c>
+      <c r="J130" t="n">
+        <v>5103.047899999998</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>89117.85340000001</v>
+        <v>124114.708</v>
       </c>
       <c r="C131" t="n">
-        <v>21.6</v>
+        <v>19.1</v>
       </c>
       <c r="D131" t="n">
-        <v>325047.8711</v>
+        <v>363711.5512</v>
       </c>
       <c r="E131" t="n">
-        <v>29.2</v>
+        <v>26.8</v>
       </c>
       <c r="F131" t="n">
-        <v>26017.2921</v>
+        <v>39952.8073</v>
       </c>
       <c r="G131" t="n">
-        <v>12.7</v>
+        <v>17.6</v>
+      </c>
+      <c r="H131" t="n">
+        <v>9634.941200000001</v>
+      </c>
+      <c r="I131" t="n">
+        <v>10612.09619999997</v>
+      </c>
+      <c r="J131" t="n">
+        <v>5107.627500000002</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>102089.3477</v>
+        <v>134939.7557</v>
       </c>
       <c r="C132" t="n">
-        <v>22.6</v>
+        <v>17.6</v>
       </c>
       <c r="D132" t="n">
-        <v>339162.7428</v>
+        <v>376013.9842</v>
       </c>
       <c r="E132" t="n">
-        <v>28.9</v>
+        <v>26</v>
       </c>
       <c r="F132" t="n">
-        <v>29742.1319</v>
+        <v>47767.4142</v>
       </c>
       <c r="G132" t="n">
-        <v>13.6</v>
+        <v>21.5</v>
+      </c>
+      <c r="H132" t="n">
+        <v>10825.04770000001</v>
+      </c>
+      <c r="I132" t="n">
+        <v>12302.43300000002</v>
+      </c>
+      <c r="J132" t="n">
+        <v>7814.606899999999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>114479.7668</v>
+        <v>146034.5653</v>
       </c>
       <c r="C133" t="n">
-        <v>21.3</v>
+        <v>12.9</v>
       </c>
       <c r="D133" t="n">
-        <v>353099.455</v>
+        <v>388438.5903</v>
       </c>
       <c r="E133" t="n">
-        <v>28.1</v>
+        <v>23.4</v>
       </c>
       <c r="F133" t="n">
-        <v>34845.1798</v>
+        <v>71692.3328</v>
       </c>
       <c r="G133" t="n">
-        <v>16.6</v>
+        <v>13</v>
+      </c>
+      <c r="H133" t="n">
+        <v>11094.80959999998</v>
+      </c>
+      <c r="I133" t="n">
+        <v>12424.60609999998</v>
+      </c>
+      <c r="J133" t="n">
+        <v>23924.9186</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>108396.3351</v>
+        <v>14832.3836</v>
       </c>
       <c r="C134" t="n">
-        <v>-12.7</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>403202.7397</v>
+        <v>297604.7665</v>
       </c>
       <c r="E134" t="n">
-        <v>10.9</v>
+        <v>32.8</v>
       </c>
       <c r="F134" t="n">
-        <v>46791.7004</v>
+        <v>7935.7425</v>
       </c>
       <c r="G134" t="n">
-        <v>17.1</v>
+        <v>47.9</v>
+      </c>
+      <c r="H134" t="n">
+        <v>14832.3836</v>
+      </c>
+      <c r="I134" t="n">
+        <v>297604.7665</v>
+      </c>
+      <c r="J134" t="n">
+        <v>7935.7425</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>119905.3274</v>
+        <v>29427.2517</v>
       </c>
       <c r="C135" t="n">
-        <v>-11.1</v>
+        <v>-5.2</v>
       </c>
       <c r="D135" t="n">
-        <v>416656.9875</v>
+        <v>307652.8601</v>
       </c>
       <c r="E135" t="n">
-        <v>10.8</v>
+        <v>22.2</v>
       </c>
       <c r="F135" t="n">
-        <v>54309.6832</v>
+        <v>14325.2389</v>
       </c>
       <c r="G135" t="n">
-        <v>13.7</v>
+        <v>40</v>
+      </c>
+      <c r="H135" t="n">
+        <v>14594.8681</v>
+      </c>
+      <c r="I135" t="n">
+        <v>10048.09359999996</v>
+      </c>
+      <c r="J135" t="n">
+        <v>6389.4964</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>130695.4195</v>
+        <v>40606.0495</v>
       </c>
       <c r="C136" t="n">
-        <v>-11.2</v>
+        <v>-7.9</v>
       </c>
       <c r="D136" t="n">
-        <v>428964.0509</v>
+        <v>321372.5914</v>
       </c>
       <c r="E136" t="n">
-        <v>10.6</v>
+        <v>18.8</v>
       </c>
       <c r="F136" t="n">
-        <v>79043.20269999999</v>
+        <v>17808.5352</v>
       </c>
       <c r="G136" t="n">
-        <v>6.4</v>
+        <v>30.1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>11178.7978</v>
+      </c>
+      <c r="I136" t="n">
+        <v>13719.73129999998</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3483.296299999998</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>14832.3836</v>
+        <v>53882.1708</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>297604.7665</v>
+        <v>339036.1397</v>
       </c>
       <c r="E137" t="n">
-        <v>32.8</v>
+        <v>17.3</v>
       </c>
       <c r="F137" t="n">
-        <v>7935.7425</v>
+        <v>21814.5499</v>
       </c>
       <c r="G137" t="n">
-        <v>47.9</v>
+        <v>26.5</v>
+      </c>
+      <c r="H137" t="n">
+        <v>13276.1213</v>
+      </c>
+      <c r="I137" t="n">
+        <v>17663.54830000002</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4006.014700000003</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>29427.2517</v>
+        <v>68617.2571</v>
       </c>
       <c r="C138" t="n">
-        <v>-5.2</v>
+        <v>-10.7</v>
       </c>
       <c r="D138" t="n">
-        <v>307652.8601</v>
+        <v>357392.4031</v>
       </c>
       <c r="E138" t="n">
-        <v>22.2</v>
+        <v>15</v>
       </c>
       <c r="F138" t="n">
-        <v>14325.2389</v>
+        <v>26718.7411</v>
       </c>
       <c r="G138" t="n">
-        <v>40</v>
+        <v>21.1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>14735.0863</v>
+      </c>
+      <c r="I138" t="n">
+        <v>18356.2634</v>
+      </c>
+      <c r="J138" t="n">
+        <v>4904.191199999997</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>40606.0495</v>
+        <v>77139.63860000001</v>
       </c>
       <c r="C139" t="n">
-        <v>-7.9</v>
+        <v>-13.4</v>
       </c>
       <c r="D139" t="n">
-        <v>321372.5914</v>
+        <v>367373.7715</v>
       </c>
       <c r="E139" t="n">
-        <v>18.8</v>
+        <v>13</v>
       </c>
       <c r="F139" t="n">
-        <v>17808.5352</v>
+        <v>30952.2741</v>
       </c>
       <c r="G139" t="n">
-        <v>30.1</v>
+        <v>19</v>
+      </c>
+      <c r="H139" t="n">
+        <v>8522.381500000003</v>
+      </c>
+      <c r="I139" t="n">
+        <v>9981.368399999978</v>
+      </c>
+      <c r="J139" t="n">
+        <v>4233.532999999999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>53882.1708</v>
+        <v>90754.6054</v>
       </c>
       <c r="C140" t="n">
-        <v>-8.199999999999999</v>
+        <v>-11.1</v>
       </c>
       <c r="D140" t="n">
-        <v>339036.1397</v>
+        <v>383558.4221</v>
       </c>
       <c r="E140" t="n">
-        <v>17.3</v>
+        <v>13.1</v>
       </c>
       <c r="F140" t="n">
-        <v>21814.5499</v>
+        <v>35801.4027</v>
       </c>
       <c r="G140" t="n">
-        <v>26.5</v>
+        <v>20.4</v>
+      </c>
+      <c r="H140" t="n">
+        <v>13614.96679999999</v>
+      </c>
+      <c r="I140" t="n">
+        <v>16184.65060000005</v>
+      </c>
+      <c r="J140" t="n">
+        <v>4849.1286</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>68617.2571</v>
+        <v>99668.0166</v>
       </c>
       <c r="C141" t="n">
-        <v>-10.7</v>
+        <v>-12.9</v>
       </c>
       <c r="D141" t="n">
-        <v>357392.4031</v>
+        <v>393777.1705</v>
       </c>
       <c r="E141" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="F141" t="n">
-        <v>26718.7411</v>
+        <v>40609.1154</v>
       </c>
       <c r="G141" t="n">
-        <v>21.1</v>
+        <v>16.5</v>
+      </c>
+      <c r="H141" t="n">
+        <v>8913.411200000002</v>
+      </c>
+      <c r="I141" t="n">
+        <v>10218.74839999998</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4807.712700000004</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>77139.63860000001</v>
+        <v>108396.3351</v>
       </c>
       <c r="C142" t="n">
-        <v>-13.4</v>
+        <v>-12.7</v>
       </c>
       <c r="D142" t="n">
-        <v>367373.7715</v>
+        <v>403202.7397</v>
       </c>
       <c r="E142" t="n">
-        <v>13</v>
+        <v>10.9</v>
       </c>
       <c r="F142" t="n">
-        <v>30952.2741</v>
+        <v>46791.7004</v>
       </c>
       <c r="G142" t="n">
-        <v>19</v>
+        <v>17.1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>8728.318499999994</v>
+      </c>
+      <c r="I142" t="n">
+        <v>9425.569199999969</v>
+      </c>
+      <c r="J142" t="n">
+        <v>6182.584999999999</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>90754.6054</v>
+        <v>119905.3274</v>
       </c>
       <c r="C143" t="n">
         <v>-11.1</v>
       </c>
       <c r="D143" t="n">
-        <v>383558.4221</v>
+        <v>416656.9875</v>
       </c>
       <c r="E143" t="n">
-        <v>13.1</v>
+        <v>10.8</v>
       </c>
       <c r="F143" t="n">
-        <v>35801.4027</v>
+        <v>54309.6832</v>
       </c>
       <c r="G143" t="n">
-        <v>20.4</v>
+        <v>13.7</v>
+      </c>
+      <c r="H143" t="n">
+        <v>11508.9923</v>
+      </c>
+      <c r="I143" t="n">
+        <v>13454.24780000001</v>
+      </c>
+      <c r="J143" t="n">
+        <v>7517.982799999998</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>99668.0166</v>
+        <v>130695.4195</v>
       </c>
       <c r="C144" t="n">
-        <v>-12.9</v>
+        <v>-11.2</v>
       </c>
       <c r="D144" t="n">
-        <v>393777.1705</v>
+        <v>428964.0509</v>
       </c>
       <c r="E144" t="n">
-        <v>11.5</v>
+        <v>10.6</v>
       </c>
       <c r="F144" t="n">
-        <v>40609.1154</v>
+        <v>79043.20269999999</v>
       </c>
       <c r="G144" t="n">
-        <v>16.5</v>
+        <v>6.4</v>
+      </c>
+      <c r="H144" t="n">
+        <v>10790.09210000001</v>
+      </c>
+      <c r="I144" t="n">
+        <v>12307.06339999998</v>
+      </c>
+      <c r="J144" t="n">
+        <v>24733.51949999999</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>114084.0345</v>
+        <v>17430.6905</v>
       </c>
       <c r="C145" t="n">
-        <v>5.2</v>
+        <v>17.5</v>
       </c>
       <c r="D145" t="n">
-        <v>451867.2214</v>
+        <v>335745.5963</v>
       </c>
       <c r="E145" t="n">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
       <c r="F145" t="n">
-        <v>46395.049</v>
+        <v>10360.0414</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.8</v>
+        <v>30.5</v>
+      </c>
+      <c r="H145" t="n">
+        <v>17430.6905</v>
+      </c>
+      <c r="I145" t="n">
+        <v>335745.5963</v>
+      </c>
+      <c r="J145" t="n">
+        <v>10360.0414</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>131848.8031</v>
+        <v>29182.2782</v>
       </c>
       <c r="C146" t="n">
-        <v>10</v>
+        <v>-0.8</v>
       </c>
       <c r="D146" t="n">
-        <v>472941.1084</v>
+        <v>352992.4356</v>
       </c>
       <c r="E146" t="n">
-        <v>13.5</v>
+        <v>14.7</v>
       </c>
       <c r="F146" t="n">
-        <v>54265.0431</v>
+        <v>15000.6971</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.1</v>
+        <v>4.7</v>
+      </c>
+      <c r="H146" t="n">
+        <v>11751.5877</v>
+      </c>
+      <c r="I146" t="n">
+        <v>17246.83930000005</v>
+      </c>
+      <c r="J146" t="n">
+        <v>4640.655699999999</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>145844.8011</v>
+        <v>41330.0115</v>
       </c>
       <c r="C147" t="n">
-        <v>11.6</v>
+        <v>1.8</v>
       </c>
       <c r="D147" t="n">
-        <v>486347.3285</v>
+        <v>368798.3189</v>
       </c>
       <c r="E147" t="n">
-        <v>13.4</v>
+        <v>14.8</v>
       </c>
       <c r="F147" t="n">
-        <v>78740.6216</v>
+        <v>18273.4845</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.4</v>
+        <v>2.6</v>
+      </c>
+      <c r="H147" t="n">
+        <v>12147.7333</v>
+      </c>
+      <c r="I147" t="n">
+        <v>15805.88329999999</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3272.787399999999</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>17430.6905</v>
+        <v>54291.3015</v>
       </c>
       <c r="C148" t="n">
-        <v>17.5</v>
+        <v>0.8</v>
       </c>
       <c r="D148" t="n">
-        <v>335745.5963</v>
+        <v>384717.4044</v>
       </c>
       <c r="E148" t="n">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="F148" t="n">
-        <v>10360.0414</v>
+        <v>22204.2062</v>
       </c>
       <c r="G148" t="n">
-        <v>30.5</v>
+        <v>1.8</v>
+      </c>
+      <c r="H148" t="n">
+        <v>12961.29</v>
+      </c>
+      <c r="I148" t="n">
+        <v>15919.08549999999</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3930.721700000002</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>29182.2782</v>
+        <v>70629.6779</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.8</v>
+        <v>2.9</v>
       </c>
       <c r="D149" t="n">
-        <v>352992.4356</v>
+        <v>403521.0926</v>
       </c>
       <c r="E149" t="n">
-        <v>14.7</v>
+        <v>12.9</v>
       </c>
       <c r="F149" t="n">
-        <v>15000.6971</v>
+        <v>27428.1046</v>
       </c>
       <c r="G149" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
+      </c>
+      <c r="H149" t="n">
+        <v>16338.37639999999</v>
+      </c>
+      <c r="I149" t="n">
+        <v>18803.68819999998</v>
+      </c>
+      <c r="J149" t="n">
+        <v>5223.898399999998</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>41330.0115</v>
+        <v>82617.10460000001</v>
       </c>
       <c r="C150" t="n">
-        <v>1.8</v>
+        <v>7.1</v>
       </c>
       <c r="D150" t="n">
-        <v>368798.3189</v>
+        <v>417255.021</v>
       </c>
       <c r="E150" t="n">
-        <v>14.8</v>
+        <v>13.6</v>
       </c>
       <c r="F150" t="n">
-        <v>18273.4845</v>
+        <v>32384.4359</v>
       </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
+      </c>
+      <c r="H150" t="n">
+        <v>11987.42670000001</v>
+      </c>
+      <c r="I150" t="n">
+        <v>13733.92840000003</v>
+      </c>
+      <c r="J150" t="n">
+        <v>4956.331300000002</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>54291.3015</v>
+        <v>93712.7506</v>
       </c>
       <c r="C151" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="D151" t="n">
-        <v>384717.4044</v>
+        <v>429625.7274</v>
       </c>
       <c r="E151" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="F151" t="n">
-        <v>22204.2062</v>
+        <v>36300.5326</v>
       </c>
       <c r="G151" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
+      </c>
+      <c r="H151" t="n">
+        <v>11095.64599999999</v>
+      </c>
+      <c r="I151" t="n">
+        <v>12370.70639999997</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3916.096699999998</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>70629.6779</v>
+        <v>106055.2967</v>
       </c>
       <c r="C152" t="n">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
       <c r="D152" t="n">
-        <v>403521.0926</v>
+        <v>443102.3801</v>
       </c>
       <c r="E152" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="F152" t="n">
-        <v>27428.1046</v>
+        <v>41169.8564</v>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
+      </c>
+      <c r="H152" t="n">
+        <v>12342.54610000001</v>
+      </c>
+      <c r="I152" t="n">
+        <v>13476.65270000004</v>
+      </c>
+      <c r="J152" t="n">
+        <v>4869.323799999998</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>82617.10460000001</v>
+        <v>114084.0345</v>
       </c>
       <c r="C153" t="n">
-        <v>7.1</v>
+        <v>5.2</v>
       </c>
       <c r="D153" t="n">
-        <v>417255.021</v>
+        <v>451867.2214</v>
       </c>
       <c r="E153" t="n">
-        <v>13.6</v>
+        <v>12.1</v>
       </c>
       <c r="F153" t="n">
-        <v>32384.4359</v>
+        <v>46395.049</v>
       </c>
       <c r="G153" t="n">
-        <v>4.6</v>
+        <v>-0.8</v>
+      </c>
+      <c r="H153" t="n">
+        <v>8028.737799999988</v>
+      </c>
+      <c r="I153" t="n">
+        <v>8764.841299999971</v>
+      </c>
+      <c r="J153" t="n">
+        <v>5225.192600000002</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>93712.7506</v>
+        <v>131848.8031</v>
       </c>
       <c r="C154" t="n">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="D154" t="n">
-        <v>429625.7274</v>
+        <v>472941.1084</v>
       </c>
       <c r="E154" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="F154" t="n">
-        <v>36300.5326</v>
+        <v>54265.0431</v>
       </c>
       <c r="G154" t="n">
-        <v>1.4</v>
+        <v>-0.1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>17764.7686</v>
+      </c>
+      <c r="I154" t="n">
+        <v>21073.88700000005</v>
+      </c>
+      <c r="J154" t="n">
+        <v>7869.994100000004</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>106055.2967</v>
+        <v>145844.8011</v>
       </c>
       <c r="C155" t="n">
-        <v>6.4</v>
+        <v>11.6</v>
       </c>
       <c r="D155" t="n">
-        <v>443102.3801</v>
+        <v>486347.3285</v>
       </c>
       <c r="E155" t="n">
-        <v>12.5</v>
+        <v>13.4</v>
       </c>
       <c r="F155" t="n">
-        <v>41169.8564</v>
+        <v>78740.6216</v>
       </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>-0.4</v>
+      </c>
+      <c r="H155" t="n">
+        <v>13995.99800000002</v>
+      </c>
+      <c r="I155" t="n">
+        <v>13406.22009999998</v>
+      </c>
+      <c r="J155" t="n">
+        <v>24475.5785</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>102879.4347</v>
+        <v>12278.7873</v>
       </c>
       <c r="C156" t="n">
-        <v>-9.800000000000001</v>
+        <v>-29.6</v>
       </c>
       <c r="D156" t="n">
-        <v>491855.306</v>
+        <v>380951.6656</v>
       </c>
       <c r="E156" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="F156" t="n">
-        <v>48748.6785</v>
+        <v>9265.500099999999</v>
       </c>
       <c r="G156" t="n">
-        <v>5.1</v>
+        <v>-10.6</v>
+      </c>
+      <c r="H156" t="n">
+        <v>12278.7873</v>
+      </c>
+      <c r="I156" t="n">
+        <v>380951.6656</v>
+      </c>
+      <c r="J156" t="n">
+        <v>9265.500099999999</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>114636.6665</v>
+        <v>21238.3522</v>
       </c>
       <c r="C157" t="n">
-        <v>-13.1</v>
+        <v>-27.2</v>
       </c>
       <c r="D157" t="n">
-        <v>504914.5214</v>
+        <v>393205.686</v>
       </c>
       <c r="E157" t="n">
-        <v>6.8</v>
+        <v>11.4</v>
       </c>
       <c r="F157" t="n">
-        <v>57235.7261</v>
+        <v>13910.4229</v>
       </c>
       <c r="G157" t="n">
-        <v>5.5</v>
+        <v>-7.3</v>
+      </c>
+      <c r="H157" t="n">
+        <v>8959.564900000001</v>
+      </c>
+      <c r="I157" t="n">
+        <v>12254.02039999998</v>
+      </c>
+      <c r="J157" t="n">
+        <v>4644.9228</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>124877.0021</v>
+        <v>31184.0583</v>
       </c>
       <c r="C158" t="n">
-        <v>-14.4</v>
+        <v>-24.5</v>
       </c>
       <c r="D158" t="n">
-        <v>515096.4458</v>
+        <v>405407.827</v>
       </c>
       <c r="E158" t="n">
-        <v>5.9</v>
+        <v>9.9</v>
       </c>
       <c r="F158" t="n">
-        <v>80868.257</v>
+        <v>17883.3527</v>
       </c>
       <c r="G158" t="n">
-        <v>2.7</v>
+        <v>-2.1</v>
+      </c>
+      <c r="H158" t="n">
+        <v>9945.706099999999</v>
+      </c>
+      <c r="I158" t="n">
+        <v>12202.141</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3972.9298</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>12278.7873</v>
+        <v>42588.2683</v>
       </c>
       <c r="C159" t="n">
-        <v>-29.6</v>
+        <v>-21.6</v>
       </c>
       <c r="D159" t="n">
-        <v>380951.6656</v>
+        <v>419883.0937</v>
       </c>
       <c r="E159" t="n">
-        <v>13.5</v>
+        <v>9.1</v>
       </c>
       <c r="F159" t="n">
-        <v>9265.500099999999</v>
+        <v>23387.8845</v>
       </c>
       <c r="G159" t="n">
-        <v>-10.6</v>
+        <v>5.3</v>
+      </c>
+      <c r="H159" t="n">
+        <v>11404.21</v>
+      </c>
+      <c r="I159" t="n">
+        <v>14475.26670000004</v>
+      </c>
+      <c r="J159" t="n">
+        <v>5504.531800000001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>21238.3522</v>
+        <v>56673.7552</v>
       </c>
       <c r="C160" t="n">
-        <v>-27.2</v>
+        <v>-19.8</v>
       </c>
       <c r="D160" t="n">
-        <v>393205.686</v>
+        <v>437194.6187</v>
       </c>
       <c r="E160" t="n">
-        <v>11.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F160" t="n">
-        <v>13910.4229</v>
+        <v>29168.3876</v>
       </c>
       <c r="G160" t="n">
-        <v>-7.3</v>
+        <v>6.3</v>
+      </c>
+      <c r="H160" t="n">
+        <v>14085.4869</v>
+      </c>
+      <c r="I160" t="n">
+        <v>17311.52499999997</v>
+      </c>
+      <c r="J160" t="n">
+        <v>5780.503099999998</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>31184.0583</v>
+        <v>69068.84940000001</v>
       </c>
       <c r="C161" t="n">
-        <v>-24.5</v>
+        <v>-16.4</v>
       </c>
       <c r="D161" t="n">
-        <v>405407.827</v>
+        <v>451577.3676</v>
       </c>
       <c r="E161" t="n">
-        <v>9.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F161" t="n">
-        <v>17883.3527</v>
+        <v>33270.4466</v>
       </c>
       <c r="G161" t="n">
-        <v>-2.1</v>
+        <v>2.7</v>
+      </c>
+      <c r="H161" t="n">
+        <v>12395.09420000001</v>
+      </c>
+      <c r="I161" t="n">
+        <v>14382.74890000001</v>
+      </c>
+      <c r="J161" t="n">
+        <v>4102.059000000005</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>42588.2683</v>
+        <v>80173.59480000001</v>
       </c>
       <c r="C162" t="n">
-        <v>-21.6</v>
+        <v>-14.4</v>
       </c>
       <c r="D162" t="n">
-        <v>419883.0937</v>
+        <v>465242.5267</v>
       </c>
       <c r="E162" t="n">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F162" t="n">
-        <v>23387.8845</v>
+        <v>38036.3794</v>
       </c>
       <c r="G162" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
+      </c>
+      <c r="H162" t="n">
+        <v>11104.7454</v>
+      </c>
+      <c r="I162" t="n">
+        <v>13665.15909999999</v>
+      </c>
+      <c r="J162" t="n">
+        <v>4765.932799999995</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>56673.7552</v>
+        <v>91754.3021</v>
       </c>
       <c r="C163" t="n">
-        <v>-19.8</v>
+        <v>-13.5</v>
       </c>
       <c r="D163" t="n">
-        <v>437194.6187</v>
+        <v>479016.5864</v>
       </c>
       <c r="E163" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="F163" t="n">
-        <v>29168.3876</v>
+        <v>43268.6303</v>
       </c>
       <c r="G163" t="n">
-        <v>6.3</v>
+        <v>5.1</v>
+      </c>
+      <c r="H163" t="n">
+        <v>11580.70729999999</v>
+      </c>
+      <c r="I163" t="n">
+        <v>13774.05969999998</v>
+      </c>
+      <c r="J163" t="n">
+        <v>5232.250899999999</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>69068.84940000001</v>
+        <v>102879.4347</v>
       </c>
       <c r="C164" t="n">
-        <v>-16.4</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>451577.3676</v>
+        <v>491855.306</v>
       </c>
       <c r="E164" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>33270.4466</v>
+        <v>48748.6785</v>
       </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
+      </c>
+      <c r="H164" t="n">
+        <v>11125.1326</v>
+      </c>
+      <c r="I164" t="n">
+        <v>12838.71960000001</v>
+      </c>
+      <c r="J164" t="n">
+        <v>5480.048200000005</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>80173.59480000001</v>
+        <v>114636.6665</v>
       </c>
       <c r="C165" t="n">
-        <v>-14.4</v>
+        <v>-13.1</v>
       </c>
       <c r="D165" t="n">
-        <v>465242.5267</v>
+        <v>504914.5214</v>
       </c>
       <c r="E165" t="n">
-        <v>8.300000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="F165" t="n">
-        <v>38036.3794</v>
+        <v>57235.7261</v>
       </c>
       <c r="G165" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
+      </c>
+      <c r="H165" t="n">
+        <v>11757.23180000001</v>
+      </c>
+      <c r="I165" t="n">
+        <v>13059.21540000004</v>
+      </c>
+      <c r="J165" t="n">
+        <v>8487.047599999998</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>91754.3021</v>
+        <v>124877.0021</v>
       </c>
       <c r="C166" t="n">
-        <v>-13.5</v>
+        <v>-14.4</v>
       </c>
       <c r="D166" t="n">
-        <v>479016.5864</v>
+        <v>515096.4458</v>
       </c>
       <c r="E166" t="n">
-        <v>8.1</v>
+        <v>5.9</v>
       </c>
       <c r="F166" t="n">
-        <v>43268.6303</v>
+        <v>80868.257</v>
       </c>
       <c r="G166" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
+      </c>
+      <c r="H166" t="n">
+        <v>10240.33559999999</v>
+      </c>
+      <c r="I166" t="n">
+        <v>10181.92439999996</v>
+      </c>
+      <c r="J166" t="n">
+        <v>23632.5309</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>87752.7004</v>
+        <v>9851.531800000001</v>
       </c>
       <c r="C167" t="n">
-        <v>-14.7</v>
+        <v>-19.8</v>
       </c>
       <c r="D167" t="n">
-        <v>492633.1473</v>
+        <v>397877.017</v>
       </c>
       <c r="E167" t="n">
-        <v>0.2</v>
+        <v>4.4</v>
       </c>
       <c r="F167" t="n">
-        <v>45235.0461</v>
+        <v>7804.4402</v>
       </c>
       <c r="G167" t="n">
-        <v>-7.2</v>
+        <v>-15.8</v>
+      </c>
+      <c r="H167" t="n">
+        <v>9851.531800000001</v>
+      </c>
+      <c r="I167" t="n">
+        <v>397877.017</v>
+      </c>
+      <c r="J167" t="n">
+        <v>7804.4402</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>97076.57150000001</v>
+        <v>16791.3179</v>
       </c>
       <c r="C168" t="n">
-        <v>-15.3</v>
+        <v>-20.9</v>
       </c>
       <c r="D168" t="n">
-        <v>503346.9483</v>
+        <v>407713.7056</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.3</v>
+        <v>3.7</v>
       </c>
       <c r="F168" t="n">
-        <v>53553.4743</v>
+        <v>12392.4893</v>
       </c>
       <c r="G168" t="n">
-        <v>-6.4</v>
+        <v>-10.9</v>
+      </c>
+      <c r="H168" t="n">
+        <v>6939.786099999998</v>
+      </c>
+      <c r="I168" t="n">
+        <v>9836.688599999994</v>
+      </c>
+      <c r="J168" t="n">
+        <v>4588.049099999999</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>106651.298</v>
+        <v>25081.1139</v>
       </c>
       <c r="C169" t="n">
-        <v>-14.6</v>
+        <v>-19.6</v>
       </c>
       <c r="D169" t="n">
-        <v>511569.5176</v>
+        <v>418478.9894</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.7</v>
+        <v>3.2</v>
       </c>
       <c r="F169" t="n">
-        <v>73777.3596</v>
+        <v>15526.9561</v>
       </c>
       <c r="G169" t="n">
-        <v>-8.800000000000001</v>
+        <v>-13.2</v>
+      </c>
+      <c r="H169" t="n">
+        <v>8289.796000000002</v>
+      </c>
+      <c r="I169" t="n">
+        <v>10765.28380000003</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3134.4668</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>9851.531800000001</v>
+        <v>35090.5998</v>
       </c>
       <c r="C170" t="n">
-        <v>-19.8</v>
+        <v>-17.6</v>
       </c>
       <c r="D170" t="n">
-        <v>397877.017</v>
+        <v>430355.9489</v>
       </c>
       <c r="E170" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="F170" t="n">
-        <v>7804.4402</v>
+        <v>19598.7622</v>
       </c>
       <c r="G170" t="n">
-        <v>-15.8</v>
+        <v>-16.2</v>
+      </c>
+      <c r="H170" t="n">
+        <v>10009.4859</v>
+      </c>
+      <c r="I170" t="n">
+        <v>11876.9595</v>
+      </c>
+      <c r="J170" t="n">
+        <v>4071.806100000002</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>16791.3179</v>
+        <v>46890.8402</v>
       </c>
       <c r="C171" t="n">
-        <v>-20.9</v>
+        <v>-17.3</v>
       </c>
       <c r="D171" t="n">
-        <v>407713.7056</v>
+        <v>444447.319</v>
       </c>
       <c r="E171" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="F171" t="n">
-        <v>12392.4893</v>
+        <v>24354.4241</v>
       </c>
       <c r="G171" t="n">
-        <v>-10.9</v>
+        <v>-16.5</v>
+      </c>
+      <c r="H171" t="n">
+        <v>11800.2404</v>
+      </c>
+      <c r="I171" t="n">
+        <v>14091.3701</v>
+      </c>
+      <c r="J171" t="n">
+        <v>4755.661899999999</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>25081.1139</v>
+        <v>56684.0514</v>
       </c>
       <c r="C172" t="n">
-        <v>-19.6</v>
+        <v>-17.9</v>
       </c>
       <c r="D172" t="n">
-        <v>418478.9894</v>
+        <v>456007.699</v>
       </c>
       <c r="E172" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>15526.9561</v>
+        <v>28077.4399</v>
       </c>
       <c r="G172" t="n">
-        <v>-13.2</v>
+        <v>-15.6</v>
+      </c>
+      <c r="H172" t="n">
+        <v>9793.211199999998</v>
+      </c>
+      <c r="I172" t="n">
+        <v>11560.38</v>
+      </c>
+      <c r="J172" t="n">
+        <v>3723.015800000001</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>35090.5998</v>
+        <v>65829.5137</v>
       </c>
       <c r="C173" t="n">
-        <v>-17.6</v>
+        <v>-17.9</v>
       </c>
       <c r="D173" t="n">
-        <v>430355.9489</v>
+        <v>466294.5219</v>
       </c>
       <c r="E173" t="n">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="F173" t="n">
-        <v>19598.7622</v>
+        <v>31494.4668</v>
       </c>
       <c r="G173" t="n">
-        <v>-16.2</v>
+        <v>-17.2</v>
+      </c>
+      <c r="H173" t="n">
+        <v>9145.462299999999</v>
+      </c>
+      <c r="I173" t="n">
+        <v>10286.82289999997</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3417.026899999997</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>46890.8402</v>
+        <v>79345</v>
       </c>
       <c r="C174" t="n">
-        <v>-17.3</v>
+        <v>-13.5</v>
       </c>
       <c r="D174" t="n">
-        <v>444447.319</v>
+        <v>482919.3072</v>
       </c>
       <c r="E174" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="F174" t="n">
-        <v>24354.4241</v>
+        <v>37791.7376</v>
       </c>
       <c r="G174" t="n">
-        <v>-16.5</v>
+        <v>-12.7</v>
+      </c>
+      <c r="H174" t="n">
+        <v>13515.4863</v>
+      </c>
+      <c r="I174" t="n">
+        <v>16624.78529999999</v>
+      </c>
+      <c r="J174" t="n">
+        <v>6297.270800000002</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>56684.0514</v>
+        <v>87752.7004</v>
       </c>
       <c r="C175" t="n">
-        <v>-17.9</v>
+        <v>-14.7</v>
       </c>
       <c r="D175" t="n">
-        <v>456007.699</v>
+        <v>492633.1473</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F175" t="n">
-        <v>28077.4399</v>
+        <v>45235.0461</v>
       </c>
       <c r="G175" t="n">
-        <v>-15.6</v>
+        <v>-7.2</v>
+      </c>
+      <c r="H175" t="n">
+        <v>8407.700400000002</v>
+      </c>
+      <c r="I175" t="n">
+        <v>9713.84010000003</v>
+      </c>
+      <c r="J175" t="n">
+        <v>7443.308499999999</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>65829.5137</v>
+        <v>97076.57150000001</v>
       </c>
       <c r="C176" t="n">
-        <v>-17.9</v>
+        <v>-15.3</v>
       </c>
       <c r="D176" t="n">
-        <v>466294.5219</v>
+        <v>503346.9483</v>
       </c>
       <c r="E176" t="n">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F176" t="n">
-        <v>31494.4668</v>
+        <v>53553.4743</v>
       </c>
       <c r="G176" t="n">
-        <v>-17.2</v>
+        <v>-6.4</v>
+      </c>
+      <c r="H176" t="n">
+        <v>9323.871100000004</v>
+      </c>
+      <c r="I176" t="n">
+        <v>10713.80099999998</v>
+      </c>
+      <c r="J176" t="n">
+        <v>8318.428200000002</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>79345</v>
+        <v>106651.298</v>
       </c>
       <c r="C177" t="n">
-        <v>-13.5</v>
+        <v>-14.6</v>
       </c>
       <c r="D177" t="n">
-        <v>482919.3072</v>
+        <v>511569.5176</v>
       </c>
       <c r="E177" t="n">
-        <v>0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="F177" t="n">
-        <v>37791.7376</v>
+        <v>73777.3596</v>
       </c>
       <c r="G177" t="n">
-        <v>-12.7</v>
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>9574.72649999999</v>
+      </c>
+      <c r="I177" t="n">
+        <v>8222.569300000032</v>
+      </c>
+      <c r="J177" t="n">
+        <v>20223.88529999999</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>94995.6211</v>
+        <v>10811.49</v>
       </c>
       <c r="C178" t="n">
-        <v>8.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D178" t="n">
-        <v>501471.4941</v>
+        <v>414617.2694</v>
       </c>
       <c r="E178" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="F178" t="n">
-        <v>47827.5963</v>
+        <v>10127.3773</v>
       </c>
       <c r="G178" t="n">
-        <v>5.7</v>
+        <v>29.8</v>
+      </c>
+      <c r="H178" t="n">
+        <v>10811.49</v>
+      </c>
+      <c r="I178" t="n">
+        <v>414617.2694</v>
+      </c>
+      <c r="J178" t="n">
+        <v>10127.3773</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>104775.5714</v>
+        <v>19271.04</v>
       </c>
       <c r="C179" t="n">
-        <v>7.9</v>
+        <v>14.8</v>
       </c>
       <c r="D179" t="n">
-        <v>511416.2079</v>
+        <v>424041.2121</v>
       </c>
       <c r="E179" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="F179" t="n">
-        <v>56379.151</v>
+        <v>14509.0502</v>
       </c>
       <c r="G179" t="n">
-        <v>5.3</v>
+        <v>17.1</v>
+      </c>
+      <c r="H179" t="n">
+        <v>8459.550000000001</v>
+      </c>
+      <c r="I179" t="n">
+        <v>9423.942700000014</v>
+      </c>
+      <c r="J179" t="n">
+        <v>4381.6729</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>115911</v>
+        <v>29606.2812</v>
       </c>
       <c r="C180" t="n">
-        <v>8.699999999999999</v>
+        <v>18</v>
       </c>
       <c r="D180" t="n">
-        <v>521310</v>
+        <v>434753.1926</v>
       </c>
       <c r="E180" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="F180" t="n">
-        <v>77185</v>
+        <v>18621.7688</v>
       </c>
       <c r="G180" t="n">
-        <v>4.6</v>
+        <v>19.9</v>
+      </c>
+      <c r="H180" t="n">
+        <v>10335.2412</v>
+      </c>
+      <c r="I180" t="n">
+        <v>10711.98050000001</v>
+      </c>
+      <c r="J180" t="n">
+        <v>4112.718600000002</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>10811.49</v>
+        <v>40767.285</v>
       </c>
       <c r="C181" t="n">
-        <v>9.699999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="D181" t="n">
-        <v>414617.2694</v>
+        <v>446436.1037</v>
       </c>
       <c r="E181" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="F181" t="n">
-        <v>10127.3773</v>
+        <v>23438.1623</v>
       </c>
       <c r="G181" t="n">
-        <v>29.8</v>
+        <v>19.6</v>
+      </c>
+      <c r="H181" t="n">
+        <v>11161.0038</v>
+      </c>
+      <c r="I181" t="n">
+        <v>11682.91109999997</v>
+      </c>
+      <c r="J181" t="n">
+        <v>4816.393499999998</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>19271.04</v>
+        <v>53433.1112</v>
       </c>
       <c r="C182" t="n">
-        <v>14.8</v>
+        <v>14</v>
       </c>
       <c r="D182" t="n">
-        <v>424041.2121</v>
+        <v>459444.3873</v>
       </c>
       <c r="E182" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="F182" t="n">
-        <v>14509.0502</v>
+        <v>29023.9545</v>
       </c>
       <c r="G182" t="n">
-        <v>17.1</v>
+        <v>19.2</v>
+      </c>
+      <c r="H182" t="n">
+        <v>12665.8262</v>
+      </c>
+      <c r="I182" t="n">
+        <v>13008.28360000002</v>
+      </c>
+      <c r="J182" t="n">
+        <v>5585.7922</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>29606.2812</v>
+        <v>64101.6533</v>
       </c>
       <c r="C183" t="n">
-        <v>18</v>
+        <v>13.1</v>
       </c>
       <c r="D183" t="n">
-        <v>434753.1926</v>
+        <v>470142.1805</v>
       </c>
       <c r="E183" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="F183" t="n">
-        <v>18621.7688</v>
+        <v>33781.6864</v>
       </c>
       <c r="G183" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
+      </c>
+      <c r="H183" t="n">
+        <v>10668.5421</v>
+      </c>
+      <c r="I183" t="n">
+        <v>10697.79320000001</v>
+      </c>
+      <c r="J183" t="n">
+        <v>4757.731899999999</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>40767.285</v>
+        <v>73563.3815</v>
       </c>
       <c r="C184" t="n">
-        <v>16.2</v>
+        <v>11.7</v>
       </c>
       <c r="D184" t="n">
-        <v>446436.1037</v>
+        <v>479954.2258</v>
       </c>
       <c r="E184" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="F184" t="n">
-        <v>23438.1623</v>
+        <v>37238.8408</v>
       </c>
       <c r="G184" t="n">
-        <v>19.6</v>
+        <v>18.2</v>
+      </c>
+      <c r="H184" t="n">
+        <v>9461.728200000005</v>
+      </c>
+      <c r="I184" t="n">
+        <v>9812.045299999998</v>
+      </c>
+      <c r="J184" t="n">
+        <v>3457.154399999999</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>53433.1112</v>
+        <v>84680.81660000001</v>
       </c>
       <c r="C185" t="n">
-        <v>14</v>
+        <v>6.7</v>
       </c>
       <c r="D185" t="n">
-        <v>459444.3873</v>
+        <v>491030.6229</v>
       </c>
       <c r="E185" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="F185" t="n">
-        <v>29023.9545</v>
+        <v>42068.0757</v>
       </c>
       <c r="G185" t="n">
-        <v>19.2</v>
+        <v>11.3</v>
+      </c>
+      <c r="H185" t="n">
+        <v>11117.4351</v>
+      </c>
+      <c r="I185" t="n">
+        <v>11076.3971</v>
+      </c>
+      <c r="J185" t="n">
+        <v>4829.234900000003</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>64101.6533</v>
+        <v>94995.6211</v>
       </c>
       <c r="C186" t="n">
-        <v>13.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D186" t="n">
-        <v>470142.1805</v>
+        <v>501471.4941</v>
       </c>
       <c r="E186" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="F186" t="n">
-        <v>33781.6864</v>
+        <v>47827.5963</v>
       </c>
       <c r="G186" t="n">
-        <v>20.3</v>
+        <v>5.7</v>
+      </c>
+      <c r="H186" t="n">
+        <v>10314.8045</v>
+      </c>
+      <c r="I186" t="n">
+        <v>10440.87119999999</v>
+      </c>
+      <c r="J186" t="n">
+        <v>5759.520599999996</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>73563.3815</v>
+        <v>104775.5714</v>
       </c>
       <c r="C187" t="n">
-        <v>11.7</v>
+        <v>7.9</v>
       </c>
       <c r="D187" t="n">
-        <v>479954.2258</v>
+        <v>511416.2079</v>
       </c>
       <c r="E187" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="F187" t="n">
-        <v>37238.8408</v>
+        <v>56379.151</v>
       </c>
       <c r="G187" t="n">
-        <v>18.2</v>
+        <v>5.3</v>
+      </c>
+      <c r="H187" t="n">
+        <v>9779.950299999997</v>
+      </c>
+      <c r="I187" t="n">
+        <v>9944.713799999969</v>
+      </c>
+      <c r="J187" t="n">
+        <v>8551.554700000001</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>84680.81660000001</v>
+        <v>115911</v>
       </c>
       <c r="C188" t="n">
-        <v>6.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D188" t="n">
-        <v>491030.6229</v>
+        <v>521310</v>
       </c>
       <c r="E188" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="F188" t="n">
-        <v>42068.0757</v>
+        <v>77185</v>
       </c>
       <c r="G188" t="n">
-        <v>11.3</v>
+        <v>4.6</v>
+      </c>
+      <c r="H188" t="n">
+        <v>11135.4286</v>
+      </c>
+      <c r="I188" t="n">
+        <v>9893.792100000021</v>
+      </c>
+      <c r="J188" t="n">
+        <v>20805.849</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>104125.4135</v>
+        <v>12410.2334</v>
       </c>
       <c r="C189" t="n">
-        <v>9.6</v>
+        <v>14.8</v>
       </c>
       <c r="D189" t="n">
-        <v>515386.5308</v>
+        <v>423184.7565</v>
       </c>
       <c r="E189" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="F189" t="n">
-        <v>46558.6938</v>
+        <v>11674.18</v>
       </c>
       <c r="G189" t="n">
-        <v>-2.7</v>
+        <v>15.3</v>
+      </c>
+      <c r="H189" t="n">
+        <v>12410.2334</v>
+      </c>
+      <c r="I189" t="n">
+        <v>423184.7565</v>
+      </c>
+      <c r="J189" t="n">
+        <v>11674.18</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>116089.4044</v>
+        <v>22750.7115</v>
       </c>
       <c r="C190" t="n">
-        <v>10.8</v>
+        <v>18.1</v>
       </c>
       <c r="D190" t="n">
-        <v>527019.2923</v>
+        <v>433241.4074</v>
       </c>
       <c r="E190" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="F190" t="n">
-        <v>54058.8041</v>
+        <v>16499.915</v>
       </c>
       <c r="G190" t="n">
-        <v>-4.1</v>
+        <v>13.7</v>
+      </c>
+      <c r="H190" t="n">
+        <v>10340.4781</v>
+      </c>
+      <c r="I190" t="n">
+        <v>10056.65090000001</v>
+      </c>
+      <c r="J190" t="n">
+        <v>4825.735000000001</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>128097.78</v>
+        <v>34799.8605</v>
       </c>
       <c r="C191" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="D191" t="n">
-        <v>536443.9603</v>
+        <v>445657.1706</v>
       </c>
       <c r="E191" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="F191" t="n">
-        <v>71815.11810000001</v>
+        <v>20108.9062</v>
       </c>
       <c r="G191" t="n">
-        <v>-7</v>
+        <v>8</v>
+      </c>
+      <c r="H191" t="n">
+        <v>12049.149</v>
+      </c>
+      <c r="I191" t="n">
+        <v>12415.76319999999</v>
+      </c>
+      <c r="J191" t="n">
+        <v>3608.9912</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>12410.2334</v>
+        <v>46902.9723</v>
       </c>
       <c r="C192" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="D192" t="n">
-        <v>423184.7565</v>
+        <v>458115.7065</v>
       </c>
       <c r="E192" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="F192" t="n">
-        <v>11674.18</v>
+        <v>24231.5115</v>
       </c>
       <c r="G192" t="n">
-        <v>15.3</v>
+        <v>3.4</v>
+      </c>
+      <c r="H192" t="n">
+        <v>12103.1118</v>
+      </c>
+      <c r="I192" t="n">
+        <v>12458.53589999996</v>
+      </c>
+      <c r="J192" t="n">
+        <v>4122.605299999999</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>22750.7115</v>
+        <v>61398.8064</v>
       </c>
       <c r="C193" t="n">
-        <v>18.1</v>
+        <v>14.9</v>
       </c>
       <c r="D193" t="n">
-        <v>433241.4074</v>
+        <v>472721.9457</v>
       </c>
       <c r="E193" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="F193" t="n">
-        <v>16499.915</v>
+        <v>29760.3758</v>
       </c>
       <c r="G193" t="n">
-        <v>13.7</v>
+        <v>2.5</v>
+      </c>
+      <c r="H193" t="n">
+        <v>14495.8341</v>
+      </c>
+      <c r="I193" t="n">
+        <v>14606.23920000001</v>
+      </c>
+      <c r="J193" t="n">
+        <v>5528.864300000001</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>34799.8605</v>
+        <v>71745.6911</v>
       </c>
       <c r="C194" t="n">
-        <v>17.5</v>
+        <v>11.9</v>
       </c>
       <c r="D194" t="n">
-        <v>445657.1706</v>
+        <v>483144.6253</v>
       </c>
       <c r="E194" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="F194" t="n">
-        <v>20108.9062</v>
+        <v>33543.194</v>
       </c>
       <c r="G194" t="n">
-        <v>8</v>
+        <v>-0.7</v>
+      </c>
+      <c r="H194" t="n">
+        <v>10346.8847</v>
+      </c>
+      <c r="I194" t="n">
+        <v>10422.67960000003</v>
+      </c>
+      <c r="J194" t="n">
+        <v>3782.818200000002</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>46902.9723</v>
+        <v>82131.2052</v>
       </c>
       <c r="C195" t="n">
-        <v>15.1</v>
+        <v>11.6</v>
       </c>
       <c r="D195" t="n">
-        <v>458115.7065</v>
+        <v>493274.7171</v>
       </c>
       <c r="E195" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="F195" t="n">
-        <v>24231.5115</v>
+        <v>37413.4534</v>
       </c>
       <c r="G195" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
+      </c>
+      <c r="H195" t="n">
+        <v>10385.5141</v>
+      </c>
+      <c r="I195" t="n">
+        <v>10130.09179999999</v>
+      </c>
+      <c r="J195" t="n">
+        <v>3870.259399999995</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>61398.8064</v>
+        <v>94112.6918</v>
       </c>
       <c r="C196" t="n">
-        <v>14.9</v>
+        <v>11.1</v>
       </c>
       <c r="D196" t="n">
-        <v>472721.9457</v>
+        <v>505329.7118</v>
       </c>
       <c r="E196" t="n">
         <v>2.9</v>
       </c>
       <c r="F196" t="n">
-        <v>29760.3758</v>
+        <v>41260.0941</v>
       </c>
       <c r="G196" t="n">
-        <v>2.5</v>
+        <v>-1.9</v>
+      </c>
+      <c r="H196" t="n">
+        <v>11981.4866</v>
+      </c>
+      <c r="I196" t="n">
+        <v>12054.99469999998</v>
+      </c>
+      <c r="J196" t="n">
+        <v>3846.640700000004</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>71745.6911</v>
+        <v>104125.4135</v>
       </c>
       <c r="C197" t="n">
-        <v>11.9</v>
+        <v>9.6</v>
       </c>
       <c r="D197" t="n">
-        <v>483144.6253</v>
+        <v>515386.5308</v>
       </c>
       <c r="E197" t="n">
         <v>2.8</v>
       </c>
       <c r="F197" t="n">
-        <v>33543.194</v>
+        <v>46558.6938</v>
       </c>
       <c r="G197" t="n">
-        <v>-0.7</v>
+        <v>-2.7</v>
+      </c>
+      <c r="H197" t="n">
+        <v>10012.72169999999</v>
+      </c>
+      <c r="I197" t="n">
+        <v>10056.81900000002</v>
+      </c>
+      <c r="J197" t="n">
+        <v>5298.599699999999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>82131.2052</v>
+        <v>116089.4044</v>
       </c>
       <c r="C198" t="n">
-        <v>11.6</v>
+        <v>10.8</v>
       </c>
       <c r="D198" t="n">
-        <v>493274.7171</v>
+        <v>527019.2923</v>
       </c>
       <c r="E198" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="F198" t="n">
-        <v>37413.4534</v>
+        <v>54058.8041</v>
       </c>
       <c r="G198" t="n">
-        <v>0.5</v>
+        <v>-4.1</v>
+      </c>
+      <c r="H198" t="n">
+        <v>11963.9909</v>
+      </c>
+      <c r="I198" t="n">
+        <v>11632.76149999996</v>
+      </c>
+      <c r="J198" t="n">
+        <v>7500.1103</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>94112.6918</v>
+        <v>128097.78</v>
       </c>
       <c r="C199" t="n">
-        <v>11.1</v>
+        <v>10.5</v>
       </c>
       <c r="D199" t="n">
-        <v>505329.7118</v>
+        <v>536443.9603</v>
       </c>
       <c r="E199" t="n">
         <v>2.9</v>
       </c>
       <c r="F199" t="n">
-        <v>41260.0941</v>
+        <v>71815.11810000001</v>
       </c>
       <c r="G199" t="n">
-        <v>-1.9</v>
+        <v>-7</v>
+      </c>
+      <c r="H199" t="n">
+        <v>12008.3756</v>
+      </c>
+      <c r="I199" t="n">
+        <v>9424.668000000063</v>
+      </c>
+      <c r="J199" t="n">
+        <v>17756.31400000001</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>123874.6585</v>
+        <v>13031.5302</v>
       </c>
       <c r="C200" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D200" t="n">
-        <v>542343.7391</v>
+        <v>430669.3485</v>
       </c>
       <c r="E200" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="F200" t="n">
-        <v>40701.7708</v>
+        <v>9681.883</v>
       </c>
       <c r="G200" t="n">
-        <v>-12.6</v>
+        <v>-17.1</v>
+      </c>
+      <c r="H200" t="n">
+        <v>13031.5302</v>
+      </c>
+      <c r="I200" t="n">
+        <v>430669.3485</v>
+      </c>
+      <c r="J200" t="n">
+        <v>9681.883</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>138535.5263</v>
+        <v>25531.2722</v>
       </c>
       <c r="C201" t="n">
-        <v>19.3</v>
+        <v>12.2</v>
       </c>
       <c r="D201" t="n">
-        <v>557172.6409999999</v>
+        <v>441540.4308</v>
       </c>
       <c r="E201" t="n">
-        <v>5.7</v>
+        <v>1.9</v>
       </c>
       <c r="F201" t="n">
-        <v>47178.1526</v>
+        <v>14197.5648</v>
       </c>
       <c r="G201" t="n">
-        <v>-12.7</v>
+        <v>-14</v>
+      </c>
+      <c r="H201" t="n">
+        <v>12499.742</v>
+      </c>
+      <c r="I201" t="n">
+        <v>10871.08229999995</v>
+      </c>
+      <c r="J201" t="n">
+        <v>4515.6818</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>153352.5689</v>
+        <v>38079.0932</v>
       </c>
       <c r="C202" t="n">
-        <v>19.7</v>
+        <v>9.4</v>
       </c>
       <c r="D202" t="n">
-        <v>569986.6618999999</v>
+        <v>454588.6687</v>
       </c>
       <c r="E202" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="F202" t="n">
-        <v>66015.7496</v>
+        <v>17337.5141</v>
       </c>
       <c r="G202" t="n">
-        <v>-8.1</v>
+        <v>-13.8</v>
+      </c>
+      <c r="H202" t="n">
+        <v>12547.821</v>
+      </c>
+      <c r="I202" t="n">
+        <v>13048.23790000001</v>
+      </c>
+      <c r="J202" t="n">
+        <v>3139.9493</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>13031.5302</v>
+        <v>53097.7604</v>
       </c>
       <c r="C203" t="n">
-        <v>5</v>
+        <v>13.2</v>
       </c>
       <c r="D203" t="n">
-        <v>430669.3485</v>
+        <v>469769.6976</v>
       </c>
       <c r="E203" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="F203" t="n">
-        <v>9681.883</v>
+        <v>21138.1783</v>
       </c>
       <c r="G203" t="n">
-        <v>-17.1</v>
+        <v>-12.8</v>
+      </c>
+      <c r="H203" t="n">
+        <v>15018.6672</v>
+      </c>
+      <c r="I203" t="n">
+        <v>15181.02890000003</v>
+      </c>
+      <c r="J203" t="n">
+        <v>3800.664199999999</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>25531.2722</v>
+        <v>70610.7092</v>
       </c>
       <c r="C204" t="n">
-        <v>12.2</v>
+        <v>15</v>
       </c>
       <c r="D204" t="n">
-        <v>441540.4308</v>
+        <v>487933.1583</v>
       </c>
       <c r="E204" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="F204" t="n">
-        <v>14197.5648</v>
+        <v>25961.8946</v>
       </c>
       <c r="G204" t="n">
-        <v>-14</v>
+        <v>-12.8</v>
+      </c>
+      <c r="H204" t="n">
+        <v>17512.9488</v>
+      </c>
+      <c r="I204" t="n">
+        <v>18163.4607</v>
+      </c>
+      <c r="J204" t="n">
+        <v>4823.7163</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>38079.0932</v>
+        <v>84684.8106</v>
       </c>
       <c r="C205" t="n">
-        <v>9.4</v>
+        <v>18</v>
       </c>
       <c r="D205" t="n">
-        <v>454588.6687</v>
+        <v>502037.3343</v>
       </c>
       <c r="E205" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="F205" t="n">
-        <v>17337.5141</v>
+        <v>29462.5119</v>
       </c>
       <c r="G205" t="n">
-        <v>-13.8</v>
+        <v>-12.2</v>
+      </c>
+      <c r="H205" t="n">
+        <v>14074.1014</v>
+      </c>
+      <c r="I205" t="n">
+        <v>14104.17599999998</v>
+      </c>
+      <c r="J205" t="n">
+        <v>3500.617300000002</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>53097.7604</v>
+        <v>98306.99430000001</v>
       </c>
       <c r="C206" t="n">
-        <v>13.2</v>
+        <v>19.7</v>
       </c>
       <c r="D206" t="n">
-        <v>469769.6976</v>
+        <v>515960.9484</v>
       </c>
       <c r="E206" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="F206" t="n">
-        <v>21138.1783</v>
+        <v>32459.5241</v>
       </c>
       <c r="G206" t="n">
-        <v>-12.8</v>
+        <v>-13.2</v>
+      </c>
+      <c r="H206" t="n">
+        <v>13622.18370000001</v>
+      </c>
+      <c r="I206" t="n">
+        <v>13923.61410000001</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2997.012199999997</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>70610.7092</v>
+        <v>112410.8731</v>
       </c>
       <c r="C207" t="n">
-        <v>15</v>
+        <v>19.4</v>
       </c>
       <c r="D207" t="n">
-        <v>487933.1583</v>
+        <v>530250.8562</v>
       </c>
       <c r="E207" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="F207" t="n">
-        <v>25961.8946</v>
+        <v>36165.6691</v>
       </c>
       <c r="G207" t="n">
-        <v>-12.8</v>
+        <v>-12.3</v>
+      </c>
+      <c r="H207" t="n">
+        <v>14103.87879999999</v>
+      </c>
+      <c r="I207" t="n">
+        <v>14289.90780000004</v>
+      </c>
+      <c r="J207" t="n">
+        <v>3706.145</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>84684.8106</v>
+        <v>123874.6585</v>
       </c>
       <c r="C208" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D208" t="n">
-        <v>502037.3343</v>
+        <v>542343.7391</v>
       </c>
       <c r="E208" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="F208" t="n">
-        <v>29462.5119</v>
+        <v>40701.7708</v>
       </c>
       <c r="G208" t="n">
-        <v>-12.2</v>
+        <v>-12.6</v>
+      </c>
+      <c r="H208" t="n">
+        <v>11463.78540000001</v>
+      </c>
+      <c r="I208" t="n">
+        <v>12092.88289999997</v>
+      </c>
+      <c r="J208" t="n">
+        <v>4536.101699999999</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>98306.99430000001</v>
+        <v>138535.5263</v>
       </c>
       <c r="C209" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="D209" t="n">
-        <v>515960.9484</v>
+        <v>557172.6409999999</v>
       </c>
       <c r="E209" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="F209" t="n">
-        <v>32459.5241</v>
+        <v>47178.1526</v>
       </c>
       <c r="G209" t="n">
-        <v>-13.2</v>
+        <v>-12.7</v>
+      </c>
+      <c r="H209" t="n">
+        <v>14660.86779999999</v>
+      </c>
+      <c r="I209" t="n">
+        <v>14828.90189999994</v>
+      </c>
+      <c r="J209" t="n">
+        <v>6476.381800000003</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>112410.8731</v>
+        <v>153352.5689</v>
       </c>
       <c r="C210" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="D210" t="n">
-        <v>530250.8562</v>
+        <v>569986.6618999999</v>
       </c>
       <c r="E210" t="n">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="F210" t="n">
-        <v>36165.6691</v>
+        <v>66015.7496</v>
       </c>
       <c r="G210" t="n">
-        <v>-12.3</v>
+        <v>-8.1</v>
+      </c>
+      <c r="H210" t="n">
+        <v>14817.04260000002</v>
+      </c>
+      <c r="I210" t="n">
+        <v>12814.0209</v>
+      </c>
+      <c r="J210" t="n">
+        <v>18837.59699999999</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>136936.7235</v>
+        <v>13596.556</v>
       </c>
       <c r="C211" t="n">
-        <v>10.5</v>
+        <v>4.3</v>
       </c>
       <c r="D211" t="n">
-        <v>598802.1642</v>
+        <v>466339.6675</v>
       </c>
       <c r="E211" t="n">
-        <v>10.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F211" t="n">
-        <v>38474.1672</v>
+        <v>8925.562400000001</v>
       </c>
       <c r="G211" t="n">
-        <v>-5.5</v>
+        <v>-7.8</v>
+      </c>
+      <c r="H211" t="n">
+        <v>13596.556</v>
+      </c>
+      <c r="I211" t="n">
+        <v>466339.6675</v>
+      </c>
+      <c r="J211" t="n">
+        <v>8925.562400000001</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>151447.4041</v>
+        <v>28466.6078</v>
       </c>
       <c r="C212" t="n">
-        <v>9.300000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="D212" t="n">
-        <v>613565.6556000001</v>
+        <v>484559.9069</v>
       </c>
       <c r="E212" t="n">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F212" t="n">
-        <v>45274.1891</v>
+        <v>13043.1143</v>
       </c>
       <c r="G212" t="n">
-        <v>-4</v>
+        <v>-8.1</v>
+      </c>
+      <c r="H212" t="n">
+        <v>14870.0518</v>
+      </c>
+      <c r="I212" t="n">
+        <v>18220.23940000002</v>
+      </c>
+      <c r="J212" t="n">
+        <v>4117.551899999999</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>167463.4262</v>
+        <v>43334.6363</v>
       </c>
       <c r="C213" t="n">
-        <v>9.199999999999999</v>
+        <v>13.8</v>
       </c>
       <c r="D213" t="n">
-        <v>627673.4235</v>
+        <v>501831.69</v>
       </c>
       <c r="E213" t="n">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="F213" t="n">
-        <v>68011.10769999999</v>
+        <v>16040.114</v>
       </c>
       <c r="G213" t="n">
-        <v>3</v>
+        <v>-7.5</v>
+      </c>
+      <c r="H213" t="n">
+        <v>14868.0285</v>
+      </c>
+      <c r="I213" t="n">
+        <v>17271.7831</v>
+      </c>
+      <c r="J213" t="n">
+        <v>2996.9997</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>13596.556</v>
+        <v>59124.7184</v>
       </c>
       <c r="C214" t="n">
-        <v>4.3</v>
+        <v>11.4</v>
       </c>
       <c r="D214" t="n">
-        <v>466339.6675</v>
+        <v>518616.6822</v>
       </c>
       <c r="E214" t="n">
-        <v>8.300000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="F214" t="n">
-        <v>8925.562400000001</v>
+        <v>18834.6263</v>
       </c>
       <c r="G214" t="n">
-        <v>-7.8</v>
+        <v>-10.9</v>
+      </c>
+      <c r="H214" t="n">
+        <v>15790.0821</v>
+      </c>
+      <c r="I214" t="n">
+        <v>16784.99219999998</v>
+      </c>
+      <c r="J214" t="n">
+        <v>2794.5123</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>28466.6078</v>
+        <v>77997.8521</v>
       </c>
       <c r="C215" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="D215" t="n">
-        <v>484559.9069</v>
+        <v>538284.0051</v>
       </c>
       <c r="E215" t="n">
-        <v>9.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="F215" t="n">
-        <v>13043.1143</v>
+        <v>22929.1039</v>
       </c>
       <c r="G215" t="n">
-        <v>-8.1</v>
+        <v>-11.7</v>
+      </c>
+      <c r="H215" t="n">
+        <v>18873.13370000001</v>
+      </c>
+      <c r="I215" t="n">
+        <v>19667.32289999997</v>
+      </c>
+      <c r="J215" t="n">
+        <v>4094.477599999998</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>43334.6363</v>
+        <v>92826.46550000001</v>
       </c>
       <c r="C216" t="n">
-        <v>13.8</v>
+        <v>9.6</v>
       </c>
       <c r="D216" t="n">
-        <v>501831.69</v>
+        <v>554111.3756</v>
       </c>
       <c r="E216" t="n">
         <v>10.4</v>
       </c>
       <c r="F216" t="n">
-        <v>16040.114</v>
+        <v>26373.6937</v>
       </c>
       <c r="G216" t="n">
-        <v>-7.5</v>
+        <v>-10.5</v>
+      </c>
+      <c r="H216" t="n">
+        <v>14828.6134</v>
+      </c>
+      <c r="I216" t="n">
+        <v>15827.37050000008</v>
+      </c>
+      <c r="J216" t="n">
+        <v>3444.589800000002</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>59124.7184</v>
+        <v>107052.9699</v>
       </c>
       <c r="C217" t="n">
-        <v>11.4</v>
+        <v>8.9</v>
       </c>
       <c r="D217" t="n">
-        <v>518616.6822</v>
+        <v>568024.7003</v>
       </c>
       <c r="E217" t="n">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="F217" t="n">
-        <v>18834.6263</v>
+        <v>29336.1478</v>
       </c>
       <c r="G217" t="n">
-        <v>-10.9</v>
+        <v>-9.6</v>
+      </c>
+      <c r="H217" t="n">
+        <v>14226.50439999999</v>
+      </c>
+      <c r="I217" t="n">
+        <v>13913.3247</v>
+      </c>
+      <c r="J217" t="n">
+        <v>2962.454099999999</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>77997.8521</v>
+        <v>122308.4502</v>
       </c>
       <c r="C218" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D218" t="n">
-        <v>538284.0051</v>
+        <v>583683.167</v>
       </c>
       <c r="E218" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="F218" t="n">
-        <v>22929.1039</v>
+        <v>33084.3161</v>
       </c>
       <c r="G218" t="n">
-        <v>-11.7</v>
+        <v>-8.5</v>
+      </c>
+      <c r="H218" t="n">
+        <v>15255.48030000001</v>
+      </c>
+      <c r="I218" t="n">
+        <v>15658.46669999999</v>
+      </c>
+      <c r="J218" t="n">
+        <v>3748.168299999998</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>92826.46550000001</v>
+        <v>136936.7235</v>
       </c>
       <c r="C219" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="D219" t="n">
-        <v>554111.3756</v>
+        <v>598802.1642</v>
       </c>
       <c r="E219" t="n">
         <v>10.4</v>
       </c>
       <c r="F219" t="n">
-        <v>26373.6937</v>
+        <v>38474.1672</v>
       </c>
       <c r="G219" t="n">
-        <v>-10.5</v>
+        <v>-5.5</v>
+      </c>
+      <c r="H219" t="n">
+        <v>14628.27329999999</v>
+      </c>
+      <c r="I219" t="n">
+        <v>15118.99719999998</v>
+      </c>
+      <c r="J219" t="n">
+        <v>5389.851100000007</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>107052.9699</v>
+        <v>151447.4041</v>
       </c>
       <c r="C220" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D220" t="n">
-        <v>568024.7003</v>
+        <v>613565.6556000001</v>
       </c>
       <c r="E220" t="n">
         <v>10.1</v>
       </c>
       <c r="F220" t="n">
-        <v>29336.1478</v>
+        <v>45274.1891</v>
       </c>
       <c r="G220" t="n">
-        <v>-9.6</v>
+        <v>-4</v>
+      </c>
+      <c r="H220" t="n">
+        <v>14510.68060000002</v>
+      </c>
+      <c r="I220" t="n">
+        <v>14763.49140000006</v>
+      </c>
+      <c r="J220" t="n">
+        <v>6800.0219</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>122308.4502</v>
+        <v>167463.4262</v>
       </c>
       <c r="C221" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D221" t="n">
-        <v>583683.167</v>
+        <v>627673.4235</v>
       </c>
       <c r="E221" t="n">
         <v>10.1</v>
       </c>
       <c r="F221" t="n">
-        <v>33084.3161</v>
+        <v>68011.10769999999</v>
       </c>
       <c r="G221" t="n">
-        <v>-8.5</v>
+        <v>3</v>
+      </c>
+      <c r="H221" t="n">
+        <v>16016.02209999997</v>
+      </c>
+      <c r="I221" t="n">
+        <v>14107.76789999998</v>
+      </c>
+      <c r="J221" t="n">
+        <v>22736.91859999999</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>132481.0923</v>
+        <v>7559.4648</v>
       </c>
       <c r="C222" t="n">
-        <v>-3.3</v>
+        <v>-44.4</v>
       </c>
       <c r="D222" t="n">
-        <v>621835.6945</v>
+        <v>487654.0872</v>
       </c>
       <c r="E222" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="F222" t="n">
-        <v>35442.724</v>
+        <v>6760.9281</v>
       </c>
       <c r="G222" t="n">
-        <v>-7.9</v>
+        <v>-24.3</v>
+      </c>
+      <c r="H222" t="n">
+        <v>7559.4648</v>
+      </c>
+      <c r="I222" t="n">
+        <v>487654.0872</v>
+      </c>
+      <c r="J222" t="n">
+        <v>6760.9281</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>147343.5708</v>
+        <v>20799.449</v>
       </c>
       <c r="C223" t="n">
-        <v>-2.7</v>
+        <v>-26.9</v>
       </c>
       <c r="D223" t="n">
-        <v>637903.4096</v>
+        <v>504616.0689</v>
       </c>
       <c r="E223" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="F223" t="n">
-        <v>42654.9761</v>
+        <v>10927.8078</v>
       </c>
       <c r="G223" t="n">
-        <v>-5.8</v>
+        <v>-16.2</v>
+      </c>
+      <c r="H223" t="n">
+        <v>13239.9842</v>
+      </c>
+      <c r="I223" t="n">
+        <v>16961.9817</v>
+      </c>
+      <c r="J223" t="n">
+        <v>4166.8797</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>164328.5319</v>
+        <v>35248.3115</v>
       </c>
       <c r="C224" t="n">
-        <v>-1.9</v>
+        <v>-18.7</v>
       </c>
       <c r="D224" t="n">
-        <v>655557.7237</v>
+        <v>521043.0979</v>
       </c>
       <c r="E224" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="F224" t="n">
-        <v>65910.03049999999</v>
+        <v>13709.332</v>
       </c>
       <c r="G224" t="n">
-        <v>-3.1</v>
+        <v>-14.5</v>
+      </c>
+      <c r="H224" t="n">
+        <v>14448.8625</v>
+      </c>
+      <c r="I224" t="n">
+        <v>16427.02899999998</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2781.5242</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>7559.4648</v>
+        <v>50887.6337</v>
       </c>
       <c r="C225" t="n">
-        <v>-44.4</v>
+        <v>-13.9</v>
       </c>
       <c r="D225" t="n">
-        <v>487654.0872</v>
+        <v>536765.1912999999</v>
       </c>
       <c r="E225" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="F225" t="n">
-        <v>6760.9281</v>
+        <v>16775.4279</v>
       </c>
       <c r="G225" t="n">
-        <v>-24.3</v>
+        <v>-10.9</v>
+      </c>
+      <c r="H225" t="n">
+        <v>15639.3222</v>
+      </c>
+      <c r="I225" t="n">
+        <v>15722.09339999995</v>
+      </c>
+      <c r="J225" t="n">
+        <v>3066.095899999998</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>20799.449</v>
+        <v>71582.8599</v>
       </c>
       <c r="C226" t="n">
-        <v>-26.9</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D226" t="n">
-        <v>504616.0689</v>
+        <v>558776.0167</v>
       </c>
       <c r="E226" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="F226" t="n">
-        <v>10927.8078</v>
+        <v>20680.3724</v>
       </c>
       <c r="G226" t="n">
-        <v>-16.2</v>
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="H226" t="n">
+        <v>20695.2262</v>
+      </c>
+      <c r="I226" t="n">
+        <v>22010.82540000009</v>
+      </c>
+      <c r="J226" t="n">
+        <v>3904.944500000001</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>35248.3115</v>
+        <v>88089.0966</v>
       </c>
       <c r="C227" t="n">
-        <v>-18.7</v>
+        <v>-5.1</v>
       </c>
       <c r="D227" t="n">
-        <v>521043.0979</v>
+        <v>576909.2632</v>
       </c>
       <c r="E227" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="F227" t="n">
-        <v>13709.332</v>
+        <v>23685.1364</v>
       </c>
       <c r="G227" t="n">
-        <v>-14.5</v>
+        <v>-10.2</v>
+      </c>
+      <c r="H227" t="n">
+        <v>16506.23670000001</v>
+      </c>
+      <c r="I227" t="n">
+        <v>18133.24650000001</v>
+      </c>
+      <c r="J227" t="n">
+        <v>3004.763999999999</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>50887.6337</v>
+        <v>102485.8912</v>
       </c>
       <c r="C228" t="n">
-        <v>-13.9</v>
+        <v>-4.3</v>
       </c>
       <c r="D228" t="n">
-        <v>536765.1912999999</v>
+        <v>592215.9782</v>
       </c>
       <c r="E228" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="F228" t="n">
-        <v>16775.4279</v>
+        <v>26498.3078</v>
       </c>
       <c r="G228" t="n">
-        <v>-10.9</v>
+        <v>-9.699999999999999</v>
+      </c>
+      <c r="H228" t="n">
+        <v>14396.79459999999</v>
+      </c>
+      <c r="I228" t="n">
+        <v>15306.71499999997</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2813.171399999999</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>71582.8599</v>
+        <v>117193.0523</v>
       </c>
       <c r="C229" t="n">
-        <v>-8.199999999999999</v>
+        <v>-4.2</v>
       </c>
       <c r="D229" t="n">
-        <v>558776.0167</v>
+        <v>607030.7047999999</v>
       </c>
       <c r="E229" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="F229" t="n">
-        <v>20680.3724</v>
+        <v>29597.2145</v>
       </c>
       <c r="G229" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10.5</v>
+      </c>
+      <c r="H229" t="n">
+        <v>14707.1611</v>
+      </c>
+      <c r="I229" t="n">
+        <v>14814.72659999994</v>
+      </c>
+      <c r="J229" t="n">
+        <v>3098.9067</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>88089.0966</v>
+        <v>132481.0923</v>
       </c>
       <c r="C230" t="n">
-        <v>-5.1</v>
+        <v>-3.3</v>
       </c>
       <c r="D230" t="n">
-        <v>576909.2632</v>
+        <v>621835.6945</v>
       </c>
       <c r="E230" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="F230" t="n">
-        <v>23685.1364</v>
+        <v>35442.724</v>
       </c>
       <c r="G230" t="n">
-        <v>-10.2</v>
+        <v>-7.9</v>
+      </c>
+      <c r="H230" t="n">
+        <v>15288.03999999999</v>
+      </c>
+      <c r="I230" t="n">
+        <v>14804.98970000003</v>
+      </c>
+      <c r="J230" t="n">
+        <v>5845.509500000004</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>102485.8912</v>
+        <v>147343.5708</v>
       </c>
       <c r="C231" t="n">
-        <v>-4.3</v>
+        <v>-2.7</v>
       </c>
       <c r="D231" t="n">
-        <v>592215.9782</v>
+        <v>637903.4096</v>
       </c>
       <c r="E231" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="F231" t="n">
-        <v>26498.3078</v>
+        <v>42654.9761</v>
       </c>
       <c r="G231" t="n">
-        <v>-9.699999999999999</v>
+        <v>-5.8</v>
+      </c>
+      <c r="H231" t="n">
+        <v>14862.4785</v>
+      </c>
+      <c r="I231" t="n">
+        <v>16067.71510000003</v>
+      </c>
+      <c r="J231" t="n">
+        <v>7212.252099999998</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>117193.0523</v>
+        <v>164328.5319</v>
       </c>
       <c r="C232" t="n">
-        <v>-4.2</v>
+        <v>-1.9</v>
       </c>
       <c r="D232" t="n">
-        <v>607030.7047999999</v>
+        <v>655557.7237</v>
       </c>
       <c r="E232" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="F232" t="n">
-        <v>29597.2145</v>
+        <v>65910.03049999999</v>
       </c>
       <c r="G232" t="n">
-        <v>-10.5</v>
+        <v>-3.1</v>
+      </c>
+      <c r="H232" t="n">
+        <v>16984.96110000001</v>
+      </c>
+      <c r="I232" t="n">
+        <v>17654.31409999996</v>
+      </c>
+      <c r="J232" t="n">
+        <v>23255.05439999999</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>123480.5665</v>
+        <v>12735.7994</v>
       </c>
       <c r="C233" t="n">
-        <v>-6.8</v>
+        <v>68.5</v>
       </c>
       <c r="D233" t="n">
-        <v>667801.0887</v>
+        <v>542503.2768</v>
       </c>
       <c r="E233" t="n">
-        <v>7.4</v>
+        <v>11.2</v>
       </c>
       <c r="F233" t="n">
-        <v>41415.4644</v>
+        <v>9862.0072</v>
       </c>
       <c r="G233" t="n">
-        <v>16.9</v>
+        <v>45.9</v>
+      </c>
+      <c r="H233" t="n">
+        <v>12735.7994</v>
+      </c>
+      <c r="I233" t="n">
+        <v>542503.2768</v>
+      </c>
+      <c r="J233" t="n">
+        <v>9862.0072</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>135017.3629</v>
+        <v>27056.8055</v>
       </c>
       <c r="C234" t="n">
-        <v>-8.4</v>
+        <v>30.1</v>
       </c>
       <c r="D234" t="n">
-        <v>679539.7212</v>
+        <v>563125.2574999999</v>
       </c>
       <c r="E234" t="n">
-        <v>6.5</v>
+        <v>11.6</v>
       </c>
       <c r="F234" t="n">
-        <v>49582.2822</v>
+        <v>13887.5661</v>
       </c>
       <c r="G234" t="n">
-        <v>16.2</v>
+        <v>27.1</v>
+      </c>
+      <c r="H234" t="n">
+        <v>14321.0061</v>
+      </c>
+      <c r="I234" t="n">
+        <v>20621.98069999996</v>
+      </c>
+      <c r="J234" t="n">
+        <v>4025.5589</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>146378.5584</v>
+        <v>40334.5984</v>
       </c>
       <c r="C235" t="n">
-        <v>-10.9</v>
+        <v>14.4</v>
       </c>
       <c r="D235" t="n">
-        <v>690319.3726999999</v>
+        <v>578027.5306000001</v>
       </c>
       <c r="E235" t="n">
-        <v>5.3</v>
+        <v>10.9</v>
       </c>
       <c r="F235" t="n">
-        <v>73016.2012</v>
+        <v>16551.232</v>
       </c>
       <c r="G235" t="n">
-        <v>10.8</v>
+        <v>20.7</v>
+      </c>
+      <c r="H235" t="n">
+        <v>13277.7929</v>
+      </c>
+      <c r="I235" t="n">
+        <v>14902.27310000011</v>
+      </c>
+      <c r="J235" t="n">
+        <v>2663.6659</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>12735.7994</v>
+        <v>55514.7395</v>
       </c>
       <c r="C236" t="n">
-        <v>68.5</v>
+        <v>9.1</v>
       </c>
       <c r="D236" t="n">
-        <v>542503.2768</v>
+        <v>593318.1971</v>
       </c>
       <c r="E236" t="n">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="F236" t="n">
-        <v>9862.0072</v>
+        <v>19880.2591</v>
       </c>
       <c r="G236" t="n">
-        <v>45.9</v>
+        <v>18.5</v>
+      </c>
+      <c r="H236" t="n">
+        <v>15180.1411</v>
+      </c>
+      <c r="I236" t="n">
+        <v>15290.66649999993</v>
+      </c>
+      <c r="J236" t="n">
+        <v>3329.027099999999</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>27056.8055</v>
+        <v>75514.8719</v>
       </c>
       <c r="C237" t="n">
-        <v>30.1</v>
+        <v>5.5</v>
       </c>
       <c r="D237" t="n">
-        <v>563125.2574999999</v>
+        <v>617479.6599</v>
       </c>
       <c r="E237" t="n">
-        <v>11.6</v>
+        <v>10.5</v>
       </c>
       <c r="F237" t="n">
-        <v>13887.5661</v>
+        <v>26253.8174</v>
       </c>
       <c r="G237" t="n">
-        <v>27.1</v>
+        <v>27</v>
+      </c>
+      <c r="H237" t="n">
+        <v>20000.13239999999</v>
+      </c>
+      <c r="I237" t="n">
+        <v>24161.46279999998</v>
+      </c>
+      <c r="J237" t="n">
+        <v>6373.558300000001</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>40334.5984</v>
+        <v>88473.9893</v>
       </c>
       <c r="C238" t="n">
-        <v>14.4</v>
+        <v>0.4</v>
       </c>
       <c r="D238" t="n">
-        <v>578027.5306000001</v>
+        <v>631071.9716</v>
       </c>
       <c r="E238" t="n">
-        <v>10.9</v>
+        <v>9.4</v>
       </c>
       <c r="F238" t="n">
-        <v>16551.232</v>
+        <v>30125.2039</v>
       </c>
       <c r="G238" t="n">
-        <v>20.7</v>
+        <v>27.2</v>
+      </c>
+      <c r="H238" t="n">
+        <v>12959.1174</v>
+      </c>
+      <c r="I238" t="n">
+        <v>13592.31170000008</v>
+      </c>
+      <c r="J238" t="n">
+        <v>3871.386500000001</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>55514.7395</v>
+        <v>100765.3349</v>
       </c>
       <c r="C239" t="n">
-        <v>9.1</v>
+        <v>-1.7</v>
       </c>
       <c r="D239" t="n">
-        <v>593318.1971</v>
+        <v>644335.6203</v>
       </c>
       <c r="E239" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F239" t="n">
-        <v>19880.2591</v>
+        <v>33771.0549</v>
       </c>
       <c r="G239" t="n">
-        <v>18.5</v>
+        <v>27.4</v>
+      </c>
+      <c r="H239" t="n">
+        <v>12291.3456</v>
+      </c>
+      <c r="I239" t="n">
+        <v>13263.6486999999</v>
+      </c>
+      <c r="J239" t="n">
+        <v>3645.851000000002</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>75514.8719</v>
+        <v>113374.4581</v>
       </c>
       <c r="C240" t="n">
-        <v>5.5</v>
+        <v>-3.3</v>
       </c>
       <c r="D240" t="n">
-        <v>617479.6599</v>
+        <v>656884.068</v>
       </c>
       <c r="E240" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F240" t="n">
-        <v>26253.8174</v>
+        <v>36816.1778</v>
       </c>
       <c r="G240" t="n">
-        <v>27</v>
+        <v>24.4</v>
+      </c>
+      <c r="H240" t="n">
+        <v>12609.1232</v>
+      </c>
+      <c r="I240" t="n">
+        <v>12548.44770000002</v>
+      </c>
+      <c r="J240" t="n">
+        <v>3045.122899999995</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>88473.9893</v>
+        <v>123480.5665</v>
       </c>
       <c r="C241" t="n">
-        <v>0.4</v>
+        <v>-6.8</v>
       </c>
       <c r="D241" t="n">
-        <v>631071.9716</v>
+        <v>667801.0887</v>
       </c>
       <c r="E241" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="F241" t="n">
-        <v>30125.2039</v>
+        <v>41415.4644</v>
       </c>
       <c r="G241" t="n">
-        <v>27.2</v>
+        <v>16.9</v>
+      </c>
+      <c r="H241" t="n">
+        <v>10106.1084</v>
+      </c>
+      <c r="I241" t="n">
+        <v>10917.02069999999</v>
+      </c>
+      <c r="J241" t="n">
+        <v>4599.286599999999</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>100765.3349</v>
+        <v>135017.3629</v>
       </c>
       <c r="C242" t="n">
-        <v>-1.7</v>
+        <v>-8.4</v>
       </c>
       <c r="D242" t="n">
-        <v>644335.6203</v>
+        <v>679539.7212</v>
       </c>
       <c r="E242" t="n">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="F242" t="n">
-        <v>33771.0549</v>
+        <v>49582.2822</v>
       </c>
       <c r="G242" t="n">
-        <v>27.4</v>
+        <v>16.2</v>
+      </c>
+      <c r="H242" t="n">
+        <v>11536.79640000001</v>
+      </c>
+      <c r="I242" t="n">
+        <v>11738.63250000007</v>
+      </c>
+      <c r="J242" t="n">
+        <v>8166.817800000004</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>113374.4581</v>
+        <v>146378.5584</v>
       </c>
       <c r="C243" t="n">
-        <v>-3.3</v>
+        <v>-10.9</v>
       </c>
       <c r="D243" t="n">
-        <v>656884.068</v>
+        <v>690319.3726999999</v>
       </c>
       <c r="E243" t="n">
-        <v>8.199999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="F243" t="n">
-        <v>36816.1778</v>
+        <v>73016.2012</v>
       </c>
       <c r="G243" t="n">
-        <v>24.4</v>
+        <v>10.8</v>
+      </c>
+      <c r="H243" t="n">
+        <v>11361.1955</v>
+      </c>
+      <c r="I243" t="n">
+        <v>10779.65149999992</v>
+      </c>
+      <c r="J243" t="n">
+        <v>23433.91899999999</v>
       </c>
     </row>
   </sheetData>
